--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\Documents\Python_Projects\auto_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF483F7-9FD2-4DAC-B313-00B78ACF3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6175630-3BD6-495B-A061-E567FB317286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="WorkingShips" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkingShips!$A$1:$AA$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">WorkingShips!$A$1:$AC$85</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="1123">
   <si>
     <t>Available</t>
   </si>
@@ -2834,1348 +2834,1376 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>OI-25110708</t>
+  </si>
+  <si>
+    <t>ANZG25110274</t>
+  </si>
+  <si>
+    <t>SLVU6039480/CICU6919110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110740</t>
+  </si>
+  <si>
+    <t>ANZG25110176</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMUSNH21213465</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMUXIA8524380</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATS9493792000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEYBKKFAL061700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYKU5660860/TCNU4312527</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110753</t>
+  </si>
+  <si>
+    <t>ANZG25100969</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOLU8752357</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110757</t>
+  </si>
+  <si>
+    <t>CSNU7989394</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25100920</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110758</t>
+  </si>
+  <si>
+    <t>GCXU5633684</t>
+  </si>
+  <si>
+    <t>OI-25110760</t>
+  </si>
+  <si>
+    <t>FCIU9827073</t>
+  </si>
+  <si>
+    <t>ANZG25110145</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSU6433693271</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COSU6433693270</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CULU6304434/HDMU6851714</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110761</t>
+  </si>
+  <si>
+    <t>ANZG25110178</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXLU6305732</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110763</t>
+  </si>
+  <si>
+    <t>ANZG25110302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAAU8014340/JXLU6158436</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110764</t>
+  </si>
+  <si>
+    <t>ANZG25110307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRYU9819194/YMMU6434399</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110766</t>
+  </si>
+  <si>
+    <t>ANZG25110261</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130632027988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK8-2025-12-08 16:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免车架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEYTAOFK6404800</t>
+  </si>
+  <si>
+    <t>COSU6435063030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDURH359735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDURH359701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATU2790450</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110829</t>
+  </si>
+  <si>
+    <t>MATU2660293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEGU9139450</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110830</t>
+  </si>
+  <si>
+    <t>ANZG25110809</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110722</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110832</t>
+  </si>
+  <si>
+    <t>OI-25110834</t>
+  </si>
+  <si>
+    <t>GAOU7354795/SEKU4474887</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25101019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHN2834720</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00604</t>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00607</t>
+  </si>
+  <si>
+    <t>CAAU4749254</t>
+  </si>
+  <si>
+    <t>FFAU1279459</t>
+  </si>
+  <si>
+    <t>ANZG25110097</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110907</t>
+  </si>
+  <si>
+    <t>NBOM42580000</t>
+  </si>
+  <si>
+    <t>ONEYSGNFX0697601</t>
+  </si>
+  <si>
+    <t>261427862</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261432851</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261432921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261432917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261374993</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261374197</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261427928</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可提后提醒国内</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAOU6101690</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110484</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110939</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡车费已付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前预约了12/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APHU4681064</t>
+  </si>
+  <si>
+    <t>OI-25110946</t>
+  </si>
+  <si>
+    <t>LYZG25110780</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110883</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110947</t>
+  </si>
+  <si>
+    <t>CMAU4842212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110953</t>
+  </si>
+  <si>
+    <t>EITU1698712</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110955</t>
+  </si>
+  <si>
+    <t>EMCU8087154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110591</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>APHU7184457/FBLU0206611/TRHU5715860</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110957</t>
+  </si>
+  <si>
+    <t>ANZG25110311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMAU9650573</t>
+  </si>
+  <si>
+    <t>OI-25110958</t>
+  </si>
+  <si>
+    <t>XYLU8154821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110959</t>
+  </si>
+  <si>
+    <t>OI-25110960</t>
+  </si>
+  <si>
+    <t>国内提供预约链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERDIEM-11/28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGLV140502781731</t>
+  </si>
+  <si>
+    <t>AIC2511A335111</t>
+  </si>
+  <si>
+    <t>AIC2511A335113</t>
+  </si>
+  <si>
+    <t>AIC2511A335115</t>
+  </si>
+  <si>
+    <t>AIC2511A335117</t>
+  </si>
+  <si>
+    <t>EGLV235501792259</t>
+  </si>
+  <si>
+    <t>山东永业</t>
+  </si>
+  <si>
+    <t>山东永业</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110488</t>
+  </si>
+  <si>
+    <t>OI-25110974</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGHU6572356</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40FR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSIU9682167</t>
+  </si>
+  <si>
+    <t>ANZG25110094</t>
+  </si>
+  <si>
+    <t>OI-25110985</t>
+  </si>
+  <si>
+    <t>EITU1369888</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25110992</t>
+  </si>
+  <si>
+    <t>ANZG25110095</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLLU8029347</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能LIVE卸货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIA1750340</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIA1750412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU8616790</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认卡车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111034</t>
+  </si>
+  <si>
+    <t>确认码头，火车站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110278</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU9042634</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111043</t>
+  </si>
+  <si>
+    <t>LYZG25110768</t>
+  </si>
+  <si>
+    <t>CICU6460020</t>
+  </si>
+  <si>
+    <t>OI-25111045</t>
+  </si>
+  <si>
+    <t>H397</t>
+  </si>
+  <si>
+    <t>PERDIEM LFD 12/1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25101348</t>
+  </si>
+  <si>
+    <t>ONEU6833145</t>
+  </si>
+  <si>
+    <t>OI-25111048</t>
+  </si>
+  <si>
+    <t>LAEM CHABANG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110348</t>
+  </si>
+  <si>
+    <t>OI-25111052</t>
+  </si>
+  <si>
+    <t>缺送货地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>德嘉彤</t>
+  </si>
+  <si>
+    <t>OI-25111059</t>
+  </si>
+  <si>
+    <t>ANZG25110516</t>
+  </si>
+  <si>
+    <t>ZCSU6110849</t>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00615</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00617</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDUJSLA25IC00620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELU4365184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEGU5916422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFAU6019480</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XYLU8152536</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111061</t>
+  </si>
+  <si>
+    <t>OI-25111064</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111065</t>
+  </si>
+  <si>
+    <t>OI-25111066</t>
+  </si>
+  <si>
+    <t>LFD 11/21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYKU4809230/ONEU5659640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111072</t>
+  </si>
+  <si>
+    <t>ANZG25110601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCU0223370</t>
+  </si>
+  <si>
+    <t>OI-25111077</t>
+  </si>
+  <si>
+    <t>ANZG25110602</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UETU6070054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111079</t>
+  </si>
+  <si>
+    <t>ANZG25110609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未录完</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMB8-11/26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEU5428385</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANLAX2510035</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111127</t>
+  </si>
+  <si>
+    <t>108557008991</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEYSGNFAL190601</t>
+  </si>
+  <si>
+    <t>COSU6435336340</t>
+  </si>
+  <si>
+    <t>COSU6435344420</t>
+  </si>
+  <si>
+    <t>EGLV235501826676</t>
+  </si>
+  <si>
+    <t>EGLV235501818487</t>
+  </si>
+  <si>
+    <t>EGLV235501826668</t>
+  </si>
+  <si>
+    <t>EGLV235501818657</t>
+  </si>
+  <si>
+    <t>EGLV235501826625</t>
+  </si>
+  <si>
+    <t>预约链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件有联系方式</t>
+  </si>
+  <si>
+    <t>告知货主：Shantui Brand excavator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCK8-131280027988- 12/12/2025 22:00 PST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计11/24号送仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111168</t>
+  </si>
+  <si>
+    <t>找RYLEE预约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMMU7002108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺邮编</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111169</t>
+  </si>
+  <si>
+    <t>LYZG25110595</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTCU4512979</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CICU6460191</t>
+  </si>
+  <si>
+    <t>OI-25111170</t>
+  </si>
+  <si>
+    <t>LYZG25110597</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTCU4512916</t>
+  </si>
+  <si>
+    <t>MCCU3126580</t>
+  </si>
+  <si>
+    <t>MCCU3127144</t>
+  </si>
+  <si>
+    <t>OI-25111172</t>
+  </si>
+  <si>
+    <t>LYZG25110596</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111175</t>
+  </si>
+  <si>
+    <t>MCCU3128372</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110587</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XIA1750303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGLV149507524284</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMUSNH21182988</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州律动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需自行查询空柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111209</t>
+  </si>
+  <si>
+    <t>MRKU6173413</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111210</t>
+  </si>
+  <si>
+    <t>DFSU7057022</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111211</t>
+  </si>
+  <si>
+    <t>LYZG25110459</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKU0529366</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111212</t>
+  </si>
+  <si>
+    <t>LYZG25110612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCCU3127247</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111213</t>
+  </si>
+  <si>
+    <t>LYZG25110613</t>
+  </si>
+  <si>
+    <t>OI-25111214</t>
+  </si>
+  <si>
+    <t>LYZG25110611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU8614946</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认火车站-码头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111215</t>
+  </si>
+  <si>
+    <t>LYZG25110522</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCNU4301142</t>
+  </si>
+  <si>
+    <t>OI-25111216</t>
+  </si>
+  <si>
+    <t>ANZG25111060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECMU5440123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111217</t>
+  </si>
+  <si>
+    <t>ANZG25111063</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2柜12/01号送仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2柜12/1号送仓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOLU8899985930</t>
+  </si>
+  <si>
+    <t>ZIMUSHH31956198</t>
+  </si>
+  <si>
+    <t>EGLV235501880841</t>
+  </si>
+  <si>
+    <t>EGLV235501880867</t>
+  </si>
+  <si>
+    <t>MATS9609873000</t>
+  </si>
+  <si>
+    <t>ZIMUSNH21140143</t>
+  </si>
+  <si>
+    <t>浙江讯合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理未放货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件有预约方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEU0653758</t>
+  </si>
+  <si>
+    <t>OI-25111272</t>
+  </si>
+  <si>
+    <t>NASHVILLE</t>
+  </si>
+  <si>
+    <t>IT#不用取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25111162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCNU8697371</t>
+  </si>
+  <si>
+    <t>OI-25111274</t>
+  </si>
+  <si>
+    <t>ANZG25110842</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25111055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111276</t>
+  </si>
+  <si>
+    <t>CSNU5555613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>福州市马尾区嘉耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111289</t>
+  </si>
+  <si>
+    <t>LYZG25110766</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTCU4513260</t>
+  </si>
+  <si>
+    <t>OI-25111290</t>
+  </si>
+  <si>
+    <t>MRKU2724098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25111107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRKU2522142</t>
+  </si>
+  <si>
+    <t>LYZG25111134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111292</t>
+  </si>
+  <si>
+    <t>OI-25111295</t>
+  </si>
+  <si>
+    <t>LYZG25110682</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU9041330</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111296</t>
+  </si>
+  <si>
+    <t>LYZG25110678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU9042660</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110681</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRU9041432</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111297</t>
+  </si>
+  <si>
+    <t>SPRU9042716</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110679</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111303</t>
+  </si>
+  <si>
+    <t>SPRU9041319</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25110680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111304</t>
+  </si>
+  <si>
+    <t>CICU6459673</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25111289</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111305</t>
+  </si>
+  <si>
+    <t>CICU6459689</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25111284</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111307</t>
+  </si>
+  <si>
+    <t>TGBU6623908</t>
+  </si>
+  <si>
+    <t>OI-25111309</t>
+  </si>
+  <si>
+    <t>ANZG25100971</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDCU0017390</t>
+  </si>
+  <si>
+    <t>ANZG25110917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111312</t>
+  </si>
+  <si>
+    <t>ANZG25111101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRHU1602038</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认待时费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108947008991</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMB8- 12/16/2025 08:00 EST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>039FY02760</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCXU5062918</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111339</t>
+  </si>
+  <si>
+    <t>ANNYC2510029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLCUSGN251182307</t>
+  </si>
+  <si>
+    <t>HLCUSGN251182329</t>
+  </si>
+  <si>
+    <t>HLCUSGN251182413</t>
+  </si>
+  <si>
+    <t>NGP3089642</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LYZG25111081</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ONEYSZPFAH315600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OOLU8881044840</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZPM45644100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLCUSGN251182318</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VIETNAM HANG LAM </t>
+  </si>
+  <si>
+    <t>rail LFD 12/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111355</t>
+  </si>
+  <si>
+    <t>OOCU6819223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110708</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111364</t>
+  </si>
+  <si>
+    <t>JXLU6190823</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25110500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGLV140502784501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货地址有更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMUXIA8525856</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZIMUXIA8525857</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25111492</t>
+  </si>
+  <si>
+    <t>MATU5178520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111401</t>
+  </si>
+  <si>
+    <t>COSU6437084870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111402</t>
+  </si>
+  <si>
+    <t>UETU7879470</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25111500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111403</t>
+  </si>
+  <si>
+    <t>ANZG25111163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JXLU6209955</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认销售</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAOU6140572</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111404</t>
+  </si>
+  <si>
+    <t>ANZG25110404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111405</t>
+  </si>
+  <si>
+    <t>ANZG25110841</t>
+  </si>
+  <si>
+    <t>TGBU5489667</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANZG25111277</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMMU6936764/KOCU5162187</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111406</t>
+  </si>
+  <si>
+    <t>WHSU5035346</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>261374539</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZTCU4513229</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI-25111461</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Express</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickUpDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApptDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContainerNu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANSendDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinalDes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FclTrk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmptyReturn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Terminal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrainSta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TESTCUS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBLFORTEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBLFORTEST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNTR1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTNR1234567/ML-VN1060044/40HQ/68CTNS/5962.92KGS/67.32CBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ECMU5177887</t>
-  </si>
-  <si>
-    <t>OI-25110708</t>
-  </si>
-  <si>
-    <t>ANZG25110274</t>
-  </si>
-  <si>
-    <t>SLVU6039480/CICU6919110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110740</t>
-  </si>
-  <si>
-    <t>ANZG25110176</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMUSNH21213465</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMUXIA8524380</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATS9493792000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEYBKKFAL061700</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NYKU5660860/TCNU4312527</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110753</t>
-  </si>
-  <si>
-    <t>ANZG25100969</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OOLU8752357</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110757</t>
-  </si>
-  <si>
-    <t>CSNU7989394</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25100920</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110758</t>
-  </si>
-  <si>
-    <t>GCXU5633684</t>
-  </si>
-  <si>
-    <t>OI-25110760</t>
-  </si>
-  <si>
-    <t>FCIU9827073</t>
-  </si>
-  <si>
-    <t>ANZG25110145</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110144</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COSU6433693271</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COSU6433693270</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CULU6304434/HDMU6851714</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110761</t>
-  </si>
-  <si>
-    <t>ANZG25110178</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JXLU6305732</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110763</t>
-  </si>
-  <si>
-    <t>ANZG25110302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAAU8014340/JXLU6158436</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110764</t>
-  </si>
-  <si>
-    <t>ANZG25110307</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRYU9819194/YMMU6434399</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110766</t>
-  </si>
-  <si>
-    <t>ANZG25110261</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>130632027988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCK8-2025-12-08 16:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减免车架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEYTAOFK6404800</t>
-  </si>
-  <si>
-    <t>COSU6435063030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDURH359735</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDURH359701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MATU2790450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110792</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110829</t>
-  </si>
-  <si>
-    <t>MATU2660293</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEGU9139450</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110830</t>
-  </si>
-  <si>
-    <t>ANZG25110809</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110722</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110832</t>
-  </si>
-  <si>
-    <t>OI-25110834</t>
-  </si>
-  <si>
-    <t>GAOU7354795/SEKU4474887</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25101019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHN2834720</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00604</t>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00607</t>
-  </si>
-  <si>
-    <t>CAAU4749254</t>
-  </si>
-  <si>
-    <t>FFAU1279459</t>
-  </si>
-  <si>
-    <t>ANZG25110097</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110907</t>
-  </si>
-  <si>
-    <t>NBOM42580000</t>
-  </si>
-  <si>
-    <t>ONEYSGNFX0697601</t>
-  </si>
-  <si>
-    <t>261427862</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261432851</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261432921</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261432917</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261374993</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261374197</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261427928</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可提后提醒国内</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAOU6101690</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110484</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110939</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡车费已付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提前预约了12/3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APHU4681064</t>
-  </si>
-  <si>
-    <t>OI-25110946</t>
-  </si>
-  <si>
-    <t>LYZG25110780</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110883</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110947</t>
-  </si>
-  <si>
-    <t>CMAU4842212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110953</t>
-  </si>
-  <si>
-    <t>EITU1698712</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110955</t>
-  </si>
-  <si>
-    <t>EMCU8087154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110591</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>APHU7184457/FBLU0206611/TRHU5715860</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110957</t>
-  </si>
-  <si>
-    <t>ANZG25110311</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMAU9650573</t>
-  </si>
-  <si>
-    <t>OI-25110958</t>
-  </si>
-  <si>
-    <t>XYLU8154821</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110959</t>
-  </si>
-  <si>
-    <t>OI-25110960</t>
-  </si>
-  <si>
-    <t>国内提供预约链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERDIEM-11/28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGLV140502781731</t>
-  </si>
-  <si>
-    <t>AIC2511A335111</t>
-  </si>
-  <si>
-    <t>AIC2511A335113</t>
-  </si>
-  <si>
-    <t>AIC2511A335115</t>
-  </si>
-  <si>
-    <t>AIC2511A335117</t>
-  </si>
-  <si>
-    <t>EGLV235501792259</t>
-  </si>
-  <si>
-    <t>山东永业</t>
-  </si>
-  <si>
-    <t>山东永业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110488</t>
-  </si>
-  <si>
-    <t>OI-25110974</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGHU6572356</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40FR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSIU9682167</t>
-  </si>
-  <si>
-    <t>ANZG25110094</t>
-  </si>
-  <si>
-    <t>OI-25110985</t>
-  </si>
-  <si>
-    <t>EITU1369888</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25110992</t>
-  </si>
-  <si>
-    <t>ANZG25110095</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLLU8029347</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>只能LIVE卸货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIA1750340</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIA1750412</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU8616790</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认卡车</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111034</t>
-  </si>
-  <si>
-    <t>确认码头，火车站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110278</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110280</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU9042634</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111043</t>
-  </si>
-  <si>
-    <t>LYZG25110768</t>
-  </si>
-  <si>
-    <t>CICU6460020</t>
-  </si>
-  <si>
-    <t>OI-25111045</t>
-  </si>
-  <si>
-    <t>H397</t>
-  </si>
-  <si>
-    <t>PERDIEM LFD 12/1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25101348</t>
-  </si>
-  <si>
-    <t>ONEU6833145</t>
-  </si>
-  <si>
-    <t>OI-25111048</t>
-  </si>
-  <si>
-    <t>LAEM CHABANG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110348</t>
-  </si>
-  <si>
-    <t>OI-25111052</t>
-  </si>
-  <si>
-    <t>缺送货地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>德嘉彤</t>
-  </si>
-  <si>
-    <t>OI-25111059</t>
-  </si>
-  <si>
-    <t>ANZG25110516</t>
-  </si>
-  <si>
-    <t>ZCSU6110849</t>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00613</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00615</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00617</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDUJSLA25IC00620</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELU4365184</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEGU5916422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFAU6019480</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XYLU8152536</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111061</t>
-  </si>
-  <si>
-    <t>OI-25111064</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111065</t>
-  </si>
-  <si>
-    <t>OI-25111066</t>
-  </si>
-  <si>
-    <t>LFD 11/21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NYKU4809230/ONEU5659640</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111072</t>
-  </si>
-  <si>
-    <t>ANZG25110601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDCU0223370</t>
-  </si>
-  <si>
-    <t>OI-25111077</t>
-  </si>
-  <si>
-    <t>ANZG25110602</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UETU6070054</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111079</t>
-  </si>
-  <si>
-    <t>ANZG25110609</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未录完</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMB8-11/26</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEU5428385</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANLAX2510035</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111127</t>
-  </si>
-  <si>
-    <t>108557008991</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEYSGNFAL190601</t>
-  </si>
-  <si>
-    <t>COSU6435336340</t>
-  </si>
-  <si>
-    <t>COSU6435344420</t>
-  </si>
-  <si>
-    <t>EGLV235501826676</t>
-  </si>
-  <si>
-    <t>EGLV235501818487</t>
-  </si>
-  <si>
-    <t>EGLV235501826668</t>
-  </si>
-  <si>
-    <t>EGLV235501818657</t>
-  </si>
-  <si>
-    <t>EGLV235501826625</t>
-  </si>
-  <si>
-    <t>预约链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件有联系方式</t>
-  </si>
-  <si>
-    <t>告知货主：Shantui Brand excavator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCK8-131280027988- 12/12/2025 22:00 PST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计11/24号送仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111168</t>
-  </si>
-  <si>
-    <t>找RYLEE预约</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HMMU7002108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺邮编</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111169</t>
-  </si>
-  <si>
-    <t>LYZG25110595</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZTCU4512979</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICU6460191</t>
-  </si>
-  <si>
-    <t>OI-25111170</t>
-  </si>
-  <si>
-    <t>LYZG25110597</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZTCU4512916</t>
-  </si>
-  <si>
-    <t>MCCU3126580</t>
-  </si>
-  <si>
-    <t>MCCU3127144</t>
-  </si>
-  <si>
-    <t>OI-25111172</t>
-  </si>
-  <si>
-    <t>LYZG25110596</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111175</t>
-  </si>
-  <si>
-    <t>MCCU3128372</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110587</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIA1750303</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGLV149507524284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMUSNH21182988</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州律动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需自行查询空柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111209</t>
-  </si>
-  <si>
-    <t>MRKU6173413</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110215</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111210</t>
-  </si>
-  <si>
-    <t>DFSU7057022</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110212</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111211</t>
-  </si>
-  <si>
-    <t>LYZG25110459</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSKU0529366</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111212</t>
-  </si>
-  <si>
-    <t>LYZG25110612</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MCCU3127247</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111213</t>
-  </si>
-  <si>
-    <t>LYZG25110613</t>
-  </si>
-  <si>
-    <t>OI-25111214</t>
-  </si>
-  <si>
-    <t>LYZG25110611</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU8614946</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认火车站-码头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111215</t>
-  </si>
-  <si>
-    <t>LYZG25110522</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCNU4301142</t>
-  </si>
-  <si>
-    <t>OI-25111216</t>
-  </si>
-  <si>
-    <t>ANZG25111060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECMU5440123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111217</t>
-  </si>
-  <si>
-    <t>ANZG25111063</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2柜12/01号送仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2柜12/1号送仓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OOLU8899985930</t>
-  </si>
-  <si>
-    <t>ZIMUSHH31956198</t>
-  </si>
-  <si>
-    <t>EGLV235501880841</t>
-  </si>
-  <si>
-    <t>EGLV235501880867</t>
-  </si>
-  <si>
-    <t>MATS9609873000</t>
-  </si>
-  <si>
-    <t>ZIMUSNH21140143</t>
-  </si>
-  <si>
-    <t>浙江讯合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理未放货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件有预约方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEU0653758</t>
-  </si>
-  <si>
-    <t>OI-25111272</t>
-  </si>
-  <si>
-    <t>NASHVILLE</t>
-  </si>
-  <si>
-    <t>IT#不用取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25111162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCNU8697371</t>
-  </si>
-  <si>
-    <t>OI-25111274</t>
-  </si>
-  <si>
-    <t>ANZG25110842</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25111055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111276</t>
-  </si>
-  <si>
-    <t>CSNU5555613</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>福州市马尾区嘉耀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111289</t>
-  </si>
-  <si>
-    <t>LYZG25110766</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZTCU4513260</t>
-  </si>
-  <si>
-    <t>OI-25111290</t>
-  </si>
-  <si>
-    <t>MRKU2724098</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25111107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRKU2522142</t>
-  </si>
-  <si>
-    <t>LYZG25111134</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111292</t>
-  </si>
-  <si>
-    <t>OI-25111295</t>
-  </si>
-  <si>
-    <t>LYZG25110682</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU9041330</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111296</t>
-  </si>
-  <si>
-    <t>LYZG25110678</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU9042660</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110681</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRU9041432</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111297</t>
-  </si>
-  <si>
-    <t>SPRU9042716</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110679</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111303</t>
-  </si>
-  <si>
-    <t>SPRU9041319</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25110680</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111304</t>
-  </si>
-  <si>
-    <t>CICU6459673</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25111289</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111305</t>
-  </si>
-  <si>
-    <t>CICU6459689</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25111284</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111307</t>
-  </si>
-  <si>
-    <t>TGBU6623908</t>
-  </si>
-  <si>
-    <t>OI-25111309</t>
-  </si>
-  <si>
-    <t>ANZG25100971</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDCU0017390</t>
-  </si>
-  <si>
-    <t>ANZG25110917</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111312</t>
-  </si>
-  <si>
-    <t>ANZG25111101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRHU1602038</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认待时费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108947008991</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMB8- 12/16/2025 08:00 EST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>039FY02760</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GCXU5062918</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111339</t>
-  </si>
-  <si>
-    <t>ANNYC2510029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLCUSGN251182307</t>
-  </si>
-  <si>
-    <t>HLCUSGN251182329</t>
-  </si>
-  <si>
-    <t>HLCUSGN251182413</t>
-  </si>
-  <si>
-    <t>NGP3089642</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LYZG25111081</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ONEYSZPFAH315600</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OOLU8881044840</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZPM45644100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLCUSGN251182318</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">VIETNAM HANG LAM </t>
-  </si>
-  <si>
-    <t>rail LFD 12/2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111355</t>
-  </si>
-  <si>
-    <t>OOCU6819223</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110708</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111364</t>
-  </si>
-  <si>
-    <t>JXLU6190823</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25110500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGLV140502784501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>送货地址有更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMUXIA8525856</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZIMUXIA8525857</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25111492</t>
-  </si>
-  <si>
-    <t>MATU5178520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111401</t>
-  </si>
-  <si>
-    <t>COSU6437084870</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111402</t>
-  </si>
-  <si>
-    <t>UETU7879470</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25111500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111403</t>
-  </si>
-  <si>
-    <t>ANZG25111163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JXLU6209955</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认销售</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAOU6140572</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111404</t>
-  </si>
-  <si>
-    <t>ANZG25110404</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111405</t>
-  </si>
-  <si>
-    <t>ANZG25110841</t>
-  </si>
-  <si>
-    <t>TGBU5489667</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANZG25111277</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HMMU6936764/KOCU5162187</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111406</t>
-  </si>
-  <si>
-    <t>WHSU5035346</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>261374539</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZTCU4513229</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI-25111461</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Customer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Express</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PickUpDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApptDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContainerNu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fee</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANSendDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinalDes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FclTrk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DODate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmptyReturn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Terminal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrainSta</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TESTCUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MBLFORTEST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HBLFORTEST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CNTR1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUCA GLIDER LOVESEAT
+CUSTOMER PO# SUXD72811000
+SHIP TO:
+MENARD INC
+SULLIVAN CROSSDOCK
+1970 SOUTH SERVICE ROAD E
+SULLIVAN, MO 63080
+PHONE: 573-468-1772</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marks</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4183,8 +4211,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;月&quot;dd&quot;日&quot;"/>
+    <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -4475,7 +4504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4695,6 +4724,39 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -5044,11 +5106,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A20992B-0191-4ADA-A79E-EEE887687013}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH209"/>
+  <dimension ref="A1:AJ209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
@@ -5079,41 +5141,43 @@
     <col min="24" max="24" width="10.5" style="45" customWidth="1"/>
     <col min="25" max="25" width="11.5" style="45" customWidth="1"/>
     <col min="26" max="26" width="13.5" style="45" customWidth="1"/>
-    <col min="27" max="27" width="16.08203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="34" width="0" style="29" hidden="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="29" hidden="1"/>
+    <col min="27" max="27" width="18.4140625" style="43" customWidth="1"/>
+    <col min="28" max="28" width="13.5" style="83" customWidth="1"/>
+    <col min="29" max="29" width="18.4140625" style="43" customWidth="1"/>
+    <col min="30" max="36" width="0" style="29" hidden="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="29" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>1099</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>1102</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>138</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>1</v>
@@ -5125,16 +5189,16 @@
         <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>1103</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>1104</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>5</v>
@@ -5146,19 +5210,19 @@
         <v>7</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>1108</v>
-      </c>
       <c r="X1" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>1111</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1112</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>8</v>
@@ -5166,8 +5230,14 @@
       <c r="AA1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="AB1" s="74" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>1122</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45904</v>
       </c>
@@ -5247,8 +5317,10 @@
         <v>13</v>
       </c>
       <c r="AA2" s="10"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45932</v>
       </c>
@@ -5328,8 +5400,10 @@
         <v>13</v>
       </c>
       <c r="AA3" s="10"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="10"/>
     </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45910</v>
       </c>
@@ -5409,8 +5483,10 @@
         <v>13</v>
       </c>
       <c r="AA4" s="10"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="10"/>
     </row>
-    <row r="5" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>45869</v>
       </c>
@@ -5488,8 +5564,10 @@
         <v>13</v>
       </c>
       <c r="AA5" s="17"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="17"/>
     </row>
-    <row r="6" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>45915</v>
       </c>
@@ -5567,8 +5645,10 @@
         <v>13</v>
       </c>
       <c r="AA6" s="17"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="17"/>
     </row>
-    <row r="7" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>45915</v>
       </c>
@@ -5644,8 +5724,10 @@
         <v>13</v>
       </c>
       <c r="AA7" s="17"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="17"/>
     </row>
-    <row r="8" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>45936</v>
       </c>
@@ -5721,8 +5803,10 @@
         <v>13</v>
       </c>
       <c r="AA8" s="17"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="17"/>
     </row>
-    <row r="9" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>45936</v>
       </c>
@@ -5798,8 +5882,10 @@
         <v>13</v>
       </c>
       <c r="AA9" s="17"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="17"/>
     </row>
-    <row r="10" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>45905</v>
       </c>
@@ -5873,8 +5959,10 @@
         <v>13</v>
       </c>
       <c r="AA10" s="17"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>45925</v>
       </c>
@@ -5950,8 +6038,10 @@
         <v>13</v>
       </c>
       <c r="AA11" s="17"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="17"/>
     </row>
-    <row r="12" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>45936</v>
       </c>
@@ -6031,8 +6121,10 @@
         <v>13</v>
       </c>
       <c r="AA12" s="17"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="17"/>
     </row>
-    <row r="13" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>45936</v>
       </c>
@@ -6112,8 +6204,10 @@
         <v>13</v>
       </c>
       <c r="AA13" s="17"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="17"/>
     </row>
-    <row r="14" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>45939</v>
       </c>
@@ -6187,8 +6281,10 @@
         <v>13</v>
       </c>
       <c r="AA14" s="17"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="17"/>
     </row>
-    <row r="15" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>45924</v>
       </c>
@@ -6264,8 +6360,10 @@
         <v>13</v>
       </c>
       <c r="AA15" s="17"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="17"/>
     </row>
-    <row r="16" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>45953</v>
       </c>
@@ -6339,8 +6437,10 @@
         <v>13</v>
       </c>
       <c r="AA16" s="17"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="17"/>
     </row>
-    <row r="17" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>45953</v>
       </c>
@@ -6414,8 +6514,10 @@
         <v>13</v>
       </c>
       <c r="AA17" s="17"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="17"/>
     </row>
-    <row r="18" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>45939</v>
       </c>
@@ -6491,8 +6593,10 @@
         <v>13</v>
       </c>
       <c r="AA18" s="17"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="17"/>
     </row>
-    <row r="19" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>45939</v>
       </c>
@@ -6568,8 +6672,10 @@
         <v>13</v>
       </c>
       <c r="AA19" s="17"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="17"/>
     </row>
-    <row r="20" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>45960</v>
       </c>
@@ -6643,8 +6749,10 @@
         <v>13</v>
       </c>
       <c r="AA20" s="17"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="17"/>
     </row>
-    <row r="21" spans="1:27" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="61" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="55">
         <v>45957</v>
       </c>
@@ -6718,8 +6826,10 @@
         <v>13</v>
       </c>
       <c r="AA21" s="55"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="55"/>
     </row>
-    <row r="22" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>45954</v>
       </c>
@@ -6793,8 +6903,10 @@
         <v>13</v>
       </c>
       <c r="AA22" s="17"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="17"/>
     </row>
-    <row r="23" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>45954</v>
       </c>
@@ -6868,8 +6980,10 @@
         <v>13</v>
       </c>
       <c r="AA23" s="17"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="17"/>
     </row>
-    <row r="24" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>45959</v>
       </c>
@@ -6947,8 +7061,10 @@
         <v>13</v>
       </c>
       <c r="AA24" s="17"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="17"/>
     </row>
-    <row r="25" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>45958</v>
       </c>
@@ -7026,8 +7142,10 @@
         <v>13</v>
       </c>
       <c r="AA25" s="17"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>45961</v>
       </c>
@@ -7101,8 +7219,10 @@
         <v>13</v>
       </c>
       <c r="AA26" s="17"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="17"/>
     </row>
-    <row r="27" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>45964</v>
       </c>
@@ -7176,8 +7296,10 @@
         <v>13</v>
       </c>
       <c r="AA27" s="17"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="17"/>
     </row>
-    <row r="28" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>45964</v>
       </c>
@@ -7251,8 +7373,10 @@
         <v>13</v>
       </c>
       <c r="AA28" s="17"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="17"/>
     </row>
-    <row r="29" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>45964</v>
       </c>
@@ -7326,8 +7450,10 @@
         <v>13</v>
       </c>
       <c r="AA29" s="17"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="17"/>
     </row>
-    <row r="30" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>45961</v>
       </c>
@@ -7401,8 +7527,10 @@
         <v>13</v>
       </c>
       <c r="AA30" s="17"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="17"/>
     </row>
-    <row r="31" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>45961</v>
       </c>
@@ -7480,8 +7608,10 @@
         <v>13</v>
       </c>
       <c r="AA31" s="17"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="17"/>
     </row>
-    <row r="32" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>45961</v>
       </c>
@@ -7559,8 +7689,10 @@
         <v>13</v>
       </c>
       <c r="AA32" s="17"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="17"/>
     </row>
-    <row r="33" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>45930</v>
       </c>
@@ -7634,8 +7766,10 @@
         <v>13</v>
       </c>
       <c r="AA33" s="17"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="17"/>
     </row>
-    <row r="34" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>45971</v>
       </c>
@@ -7709,8 +7843,10 @@
         <v>13</v>
       </c>
       <c r="AA34" s="17"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="17"/>
     </row>
-    <row r="35" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>45971</v>
       </c>
@@ -7784,8 +7920,10 @@
         <v>13</v>
       </c>
       <c r="AA35" s="17"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="17"/>
     </row>
-    <row r="36" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>45968</v>
       </c>
@@ -7859,8 +7997,10 @@
         <v>13</v>
       </c>
       <c r="AA36" s="17"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="17"/>
     </row>
-    <row r="37" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>45944</v>
       </c>
@@ -7936,8 +8076,10 @@
         <v>13</v>
       </c>
       <c r="AA37" s="17"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="17"/>
     </row>
-    <row r="38" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>45968</v>
       </c>
@@ -8011,8 +8153,10 @@
         <v>13</v>
       </c>
       <c r="AA38" s="17"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="17"/>
     </row>
-    <row r="39" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>45968</v>
       </c>
@@ -8086,8 +8230,10 @@
         <v>13</v>
       </c>
       <c r="AA39" s="17"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="17"/>
     </row>
-    <row r="40" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
         <v>45971</v>
       </c>
@@ -8161,8 +8307,10 @@
         <v>13</v>
       </c>
       <c r="AA40" s="17"/>
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="17"/>
     </row>
-    <row r="41" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>45971</v>
       </c>
@@ -8236,8 +8384,10 @@
         <v>13</v>
       </c>
       <c r="AA41" s="17"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="17"/>
     </row>
-    <row r="42" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
         <v>45971</v>
       </c>
@@ -8311,8 +8461,10 @@
         <v>13</v>
       </c>
       <c r="AA42" s="17"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="17"/>
     </row>
-    <row r="43" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>45971</v>
       </c>
@@ -8386,8 +8538,10 @@
         <v>13</v>
       </c>
       <c r="AA43" s="17"/>
+      <c r="AB43" s="76"/>
+      <c r="AC43" s="17"/>
     </row>
-    <row r="44" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>45971</v>
       </c>
@@ -8461,8 +8615,10 @@
         <v>13</v>
       </c>
       <c r="AA44" s="17"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="17"/>
     </row>
-    <row r="45" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>45971</v>
       </c>
@@ -8536,8 +8692,10 @@
         <v>13</v>
       </c>
       <c r="AA45" s="17"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="17"/>
     </row>
-    <row r="46" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>45971</v>
       </c>
@@ -8611,8 +8769,10 @@
         <v>13</v>
       </c>
       <c r="AA46" s="17"/>
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="17"/>
     </row>
-    <row r="47" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>45972</v>
       </c>
@@ -8686,8 +8846,10 @@
         <v>13</v>
       </c>
       <c r="AA47" s="17"/>
+      <c r="AB47" s="76"/>
+      <c r="AC47" s="17"/>
     </row>
-    <row r="48" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>45972</v>
       </c>
@@ -8761,8 +8923,10 @@
         <v>13</v>
       </c>
       <c r="AA48" s="17"/>
+      <c r="AB48" s="76"/>
+      <c r="AC48" s="17"/>
     </row>
-    <row r="49" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="17">
         <v>45972</v>
       </c>
@@ -8836,8 +9000,10 @@
         <v>13</v>
       </c>
       <c r="AA49" s="17"/>
+      <c r="AB49" s="76"/>
+      <c r="AC49" s="17"/>
     </row>
-    <row r="50" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>45972</v>
       </c>
@@ -8911,8 +9077,10 @@
         <v>13</v>
       </c>
       <c r="AA50" s="17"/>
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="17"/>
     </row>
-    <row r="51" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="17">
         <v>45944</v>
       </c>
@@ -8988,8 +9156,10 @@
         <v>13</v>
       </c>
       <c r="AA51" s="17"/>
+      <c r="AB51" s="76"/>
+      <c r="AC51" s="17"/>
     </row>
-    <row r="52" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>45966</v>
       </c>
@@ -9024,7 +9194,7 @@
         <v>682</v>
       </c>
       <c r="N52" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="O52" s="17" t="s">
         <v>13</v>
@@ -9063,8 +9233,10 @@
         <v>13</v>
       </c>
       <c r="AA52" s="17"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="17"/>
     </row>
-    <row r="53" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>45968</v>
       </c>
@@ -9090,16 +9262,16 @@
         <v>13</v>
       </c>
       <c r="K53" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="M53" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="N53" s="19" t="s">
         <v>763</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>767</v>
-      </c>
-      <c r="N53" s="19" t="s">
-        <v>764</v>
       </c>
       <c r="O53" s="17" t="s">
         <v>13</v>
@@ -9138,8 +9310,10 @@
         <v>13</v>
       </c>
       <c r="AA53" s="17"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="17"/>
     </row>
-    <row r="54" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>45968</v>
       </c>
@@ -9165,16 +9339,16 @@
         <v>13</v>
       </c>
       <c r="K54" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="M54" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="N54" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="M54" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="N54" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="O54" s="17" t="s">
         <v>13</v>
@@ -9213,8 +9387,10 @@
         <v>13</v>
       </c>
       <c r="AA54" s="17"/>
+      <c r="AB54" s="76"/>
+      <c r="AC54" s="17"/>
     </row>
-    <row r="55" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="17">
         <v>45978</v>
       </c>
@@ -9240,16 +9416,16 @@
         <v>13</v>
       </c>
       <c r="K55" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="M55" s="18" t="s">
         <v>795</v>
       </c>
-      <c r="L55" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>796</v>
-      </c>
       <c r="N55" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O55" s="17" t="s">
         <v>13</v>
@@ -9288,8 +9464,10 @@
         <v>13</v>
       </c>
       <c r="AA55" s="17"/>
+      <c r="AB55" s="76"/>
+      <c r="AC55" s="17"/>
     </row>
-    <row r="56" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="17">
         <v>45975</v>
       </c>
@@ -9315,16 +9493,16 @@
         <v>13</v>
       </c>
       <c r="K56" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>730</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N56" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O56" s="17" t="s">
         <v>13</v>
@@ -9363,8 +9541,10 @@
         <v>13</v>
       </c>
       <c r="AA56" s="17"/>
+      <c r="AB56" s="76"/>
+      <c r="AC56" s="17"/>
     </row>
-    <row r="57" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="17">
         <v>45975</v>
       </c>
@@ -9390,16 +9570,16 @@
         <v>13</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L57" s="18" t="s">
         <v>731</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="N57" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="O57" s="17" t="s">
         <v>13</v>
@@ -9438,8 +9618,10 @@
         <v>13</v>
       </c>
       <c r="AA57" s="17"/>
+      <c r="AB57" s="76"/>
+      <c r="AC57" s="17"/>
     </row>
-    <row r="58" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>45974</v>
       </c>
@@ -9467,16 +9649,16 @@
         <v>13</v>
       </c>
       <c r="K58" s="17" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>684</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N58" s="19" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O58" s="17" t="s">
         <v>13</v>
@@ -9515,8 +9697,10 @@
         <v>13</v>
       </c>
       <c r="AA58" s="17"/>
+      <c r="AB58" s="76"/>
+      <c r="AC58" s="17"/>
     </row>
-    <row r="59" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>45974</v>
       </c>
@@ -9542,16 +9726,16 @@
         <v>13</v>
       </c>
       <c r="K59" s="17" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>685</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="N59" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="O59" s="17" t="s">
         <v>13</v>
@@ -9590,8 +9774,10 @@
         <v>13</v>
       </c>
       <c r="AA59" s="17"/>
+      <c r="AB59" s="76"/>
+      <c r="AC59" s="17"/>
     </row>
-    <row r="60" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17">
         <v>45975</v>
       </c>
@@ -9617,16 +9803,16 @@
         <v>13</v>
       </c>
       <c r="K60" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M60" s="18" t="s">
         <v>734</v>
       </c>
       <c r="N60" s="19" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="O60" s="17" t="s">
         <v>13</v>
@@ -9665,8 +9851,10 @@
         <v>13</v>
       </c>
       <c r="AA60" s="17"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="17"/>
     </row>
-    <row r="61" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17">
         <v>45975</v>
       </c>
@@ -9692,16 +9880,16 @@
         <v>13</v>
       </c>
       <c r="K61" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M61" s="18" t="s">
         <v>733</v>
       </c>
       <c r="N61" s="19" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="O61" s="17" t="s">
         <v>13</v>
@@ -9740,8 +9928,10 @@
         <v>13</v>
       </c>
       <c r="AA61" s="17"/>
+      <c r="AB61" s="76"/>
+      <c r="AC61" s="17"/>
     </row>
-    <row r="62" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>45975</v>
       </c>
@@ -9767,16 +9957,16 @@
         <v>13</v>
       </c>
       <c r="K62" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M62" s="18" t="s">
         <v>732</v>
       </c>
       <c r="N62" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O62" s="17" t="s">
         <v>13</v>
@@ -9815,8 +10005,10 @@
         <v>13</v>
       </c>
       <c r="AA62" s="17"/>
+      <c r="AB62" s="76"/>
+      <c r="AC62" s="17"/>
     </row>
-    <row r="63" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17">
         <v>45964</v>
       </c>
@@ -9890,8 +10082,10 @@
         <v>13</v>
       </c>
       <c r="AA63" s="17"/>
+      <c r="AB63" s="76"/>
+      <c r="AC63" s="17"/>
     </row>
-    <row r="64" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>45964</v>
       </c>
@@ -9917,16 +10111,16 @@
         <v>13</v>
       </c>
       <c r="K64" s="17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>521</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="N64" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O64" s="17" t="s">
         <v>13</v>
@@ -9965,8 +10159,10 @@
         <v>13</v>
       </c>
       <c r="AA64" s="17"/>
+      <c r="AB64" s="76"/>
+      <c r="AC64" s="17"/>
     </row>
-    <row r="65" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>45980</v>
       </c>
@@ -9992,16 +10188,16 @@
         <v>13</v>
       </c>
       <c r="K65" s="17" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N65" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O65" s="17" t="s">
         <v>13</v>
@@ -10040,8 +10236,10 @@
         <v>13</v>
       </c>
       <c r="AA65" s="17"/>
+      <c r="AB65" s="76"/>
+      <c r="AC65" s="17"/>
     </row>
-    <row r="66" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>45981</v>
       </c>
@@ -10067,16 +10265,16 @@
         <v>13</v>
       </c>
       <c r="K66" s="17" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="N66" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="O66" s="17" t="s">
         <v>13</v>
@@ -10115,8 +10313,10 @@
         <v>13</v>
       </c>
       <c r="AA66" s="17"/>
+      <c r="AB66" s="76"/>
+      <c r="AC66" s="17"/>
     </row>
-    <row r="67" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>45981</v>
       </c>
@@ -10142,16 +10342,16 @@
         <v>13</v>
       </c>
       <c r="K67" s="17" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="N67" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O67" s="17" t="s">
         <v>13</v>
@@ -10190,8 +10390,10 @@
         <v>13</v>
       </c>
       <c r="AA67" s="17"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="17"/>
     </row>
-    <row r="68" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>45981</v>
       </c>
@@ -10217,16 +10419,16 @@
         <v>13</v>
       </c>
       <c r="K68" s="17" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="N68" s="19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O68" s="17" t="s">
         <v>13</v>
@@ -10265,8 +10467,10 @@
         <v>13</v>
       </c>
       <c r="AA68" s="17"/>
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="17"/>
     </row>
-    <row r="69" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>45981</v>
       </c>
@@ -10292,16 +10496,16 @@
         <v>13</v>
       </c>
       <c r="K69" s="17" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="N69" s="19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="O69" s="17" t="s">
         <v>13</v>
@@ -10340,8 +10544,10 @@
         <v>13</v>
       </c>
       <c r="AA69" s="17"/>
+      <c r="AB69" s="76"/>
+      <c r="AC69" s="17"/>
     </row>
-    <row r="70" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="17">
         <v>45989</v>
       </c>
@@ -10367,16 +10573,16 @@
         <v>13</v>
       </c>
       <c r="K70" s="17" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L70" s="18" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M70" s="18" t="s">
         <v>1050</v>
       </c>
-      <c r="L70" s="18" t="s">
+      <c r="N70" s="19" t="s">
         <v>1048</v>
-      </c>
-      <c r="M70" s="18" t="s">
-        <v>1051</v>
-      </c>
-      <c r="N70" s="19" t="s">
-        <v>1049</v>
       </c>
       <c r="O70" s="17" t="s">
         <v>13</v>
@@ -10415,8 +10621,10 @@
         <v>13</v>
       </c>
       <c r="AA70" s="17"/>
+      <c r="AB70" s="76"/>
+      <c r="AC70" s="17"/>
     </row>
-    <row r="71" spans="1:27" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>45943</v>
       </c>
@@ -10439,7 +10647,7 @@
         <v>102</v>
       </c>
       <c r="J71" s="22" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K71" s="17" t="s">
         <v>370</v>
@@ -10490,8 +10698,10 @@
         <v>13</v>
       </c>
       <c r="AA71" s="17"/>
+      <c r="AB71" s="76"/>
+      <c r="AC71" s="17"/>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>45987</v>
       </c>
@@ -10517,16 +10727,16 @@
         <v>13</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="L72" s="26" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M72" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N72" s="27" t="s">
         <v>1073</v>
-      </c>
-      <c r="N72" s="27" t="s">
-        <v>1074</v>
       </c>
       <c r="O72" s="25" t="s">
         <v>13</v>
@@ -10561,8 +10771,10 @@
         <v>13</v>
       </c>
       <c r="AA72" s="25"/>
+      <c r="AB72" s="78"/>
+      <c r="AC72" s="25"/>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>45975</v>
       </c>
@@ -10588,16 +10800,16 @@
         <v>13</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>729</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N73" s="27" t="s">
-        <v>746</v>
+        <v>1118</v>
       </c>
       <c r="O73" s="25" t="s">
         <v>13</v>
@@ -10632,8 +10844,10 @@
         <v>13</v>
       </c>
       <c r="AA73" s="25"/>
+      <c r="AB73" s="78"/>
+      <c r="AC73" s="25"/>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>45965</v>
       </c>
@@ -10703,8 +10917,10 @@
         <v>13</v>
       </c>
       <c r="AA74" s="25"/>
+      <c r="AB74" s="78"/>
+      <c r="AC74" s="25"/>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>45986</v>
       </c>
@@ -10730,16 +10946,16 @@
         <v>13</v>
       </c>
       <c r="K75" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>953</v>
+      </c>
+      <c r="M75" s="26" t="s">
         <v>1042</v>
       </c>
-      <c r="L75" s="26" t="s">
-        <v>954</v>
-      </c>
-      <c r="M75" s="26" t="s">
+      <c r="N75" s="27" t="s">
         <v>1043</v>
-      </c>
-      <c r="N75" s="27" t="s">
-        <v>1044</v>
       </c>
       <c r="O75" s="25" t="s">
         <v>13</v>
@@ -10774,13 +10990,15 @@
         <v>13</v>
       </c>
       <c r="AA75" s="25"/>
+      <c r="AB75" s="78"/>
+      <c r="AC75" s="25"/>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>45987</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C76" s="25" t="s">
         <v>22</v>
@@ -10795,22 +11013,22 @@
       </c>
       <c r="H76" s="25"/>
       <c r="I76" s="22" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K76" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>989</v>
+      </c>
+      <c r="M76" s="26" t="s">
         <v>1080</v>
       </c>
-      <c r="L76" s="26" t="s">
-        <v>990</v>
-      </c>
-      <c r="M76" s="26" t="s">
+      <c r="N76" s="27" t="s">
         <v>1081</v>
-      </c>
-      <c r="N76" s="27" t="s">
-        <v>1082</v>
       </c>
       <c r="O76" s="25" t="s">
         <v>13</v>
@@ -10845,8 +11063,10 @@
         <v>13</v>
       </c>
       <c r="AA76" s="25"/>
+      <c r="AB76" s="78"/>
+      <c r="AC76" s="25"/>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>45989</v>
       </c>
@@ -10862,7 +11082,7 @@
       <c r="J77" s="25"/>
       <c r="K77" s="25"/>
       <c r="L77" s="26" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="M77" s="26"/>
       <c r="N77" s="27"/>
@@ -10879,8 +11099,10 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="25"/>
+      <c r="AB77" s="78"/>
+      <c r="AC77" s="25"/>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>45989</v>
       </c>
@@ -10896,7 +11118,7 @@
       <c r="J78" s="25"/>
       <c r="K78" s="25"/>
       <c r="L78" s="26" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="M78" s="26"/>
       <c r="N78" s="27"/>
@@ -10913,8 +11135,10 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="25"/>
+      <c r="AB78" s="78"/>
+      <c r="AC78" s="25"/>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>45989</v>
       </c>
@@ -10930,7 +11154,7 @@
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
       <c r="L79" s="26" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="M79" s="26"/>
       <c r="N79" s="27"/>
@@ -10947,13 +11171,15 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="25"/>
+      <c r="AB79" s="78"/>
+      <c r="AC79" s="25"/>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>45989</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -10964,7 +11190,7 @@
       <c r="J80" s="25"/>
       <c r="K80" s="25"/>
       <c r="L80" s="26" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="M80" s="26"/>
       <c r="N80" s="27"/>
@@ -10981,13 +11207,15 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="25"/>
+      <c r="AB80" s="78"/>
+      <c r="AC80" s="25"/>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>45992</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C81" s="25" t="s">
         <v>22</v>
@@ -11006,13 +11234,13 @@
       </c>
       <c r="K81" s="25"/>
       <c r="L81" s="26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M81" s="26" t="s">
         <v>1115</v>
       </c>
-      <c r="M81" s="26" t="s">
+      <c r="N81" s="27" t="s">
         <v>1116</v>
-      </c>
-      <c r="N81" s="27" t="s">
-        <v>1117</v>
       </c>
       <c r="O81" s="25" t="s">
         <v>13</v>
@@ -11046,14 +11274,22 @@
       <c r="Z81" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AA81" s="25"/>
+      <c r="AA81" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AB81" s="84" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AC81" s="25" t="s">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>45989</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -11064,7 +11300,7 @@
       <c r="J82" s="25"/>
       <c r="K82" s="25"/>
       <c r="L82" s="26" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="M82" s="26"/>
       <c r="N82" s="27"/>
@@ -11081,13 +11317,15 @@
       <c r="Y82" s="27"/>
       <c r="Z82" s="27"/>
       <c r="AA82" s="25"/>
+      <c r="AB82" s="78"/>
+      <c r="AC82" s="25"/>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>45989</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
@@ -11098,7 +11336,7 @@
       <c r="J83" s="25"/>
       <c r="K83" s="25"/>
       <c r="L83" s="26" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M83" s="26"/>
       <c r="N83" s="27"/>
@@ -11115,13 +11353,15 @@
       <c r="Y83" s="27"/>
       <c r="Z83" s="27"/>
       <c r="AA83" s="25"/>
+      <c r="AB83" s="78"/>
+      <c r="AC83" s="25"/>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>45989</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -11132,7 +11372,7 @@
       <c r="J84" s="25"/>
       <c r="K84" s="25"/>
       <c r="L84" s="26" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="M84" s="26"/>
       <c r="N84" s="27"/>
@@ -11149,13 +11389,15 @@
       <c r="Y84" s="27"/>
       <c r="Z84" s="27"/>
       <c r="AA84" s="25"/>
+      <c r="AB84" s="78"/>
+      <c r="AC84" s="25"/>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>45989</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -11166,7 +11408,7 @@
       <c r="J85" s="25"/>
       <c r="K85" s="25"/>
       <c r="L85" s="26" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="M85" s="26"/>
       <c r="N85" s="27"/>
@@ -11183,89 +11425,93 @@
       <c r="Y85" s="27"/>
       <c r="Z85" s="27"/>
       <c r="AA85" s="25"/>
+      <c r="AB85" s="78"/>
+      <c r="AC85" s="25"/>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B86" s="71" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L86" s="73" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M86" s="73" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="N86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="O86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P86" s="72" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Q86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="R86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="S86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="T86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="U86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="W86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="X86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Y86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="Z86" s="70" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="AA86" s="70"/>
+      <c r="AB86" s="79"/>
+      <c r="AC86" s="70"/>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>45929</v>
       </c>
@@ -11336,8 +11582,10 @@
         <v>13</v>
       </c>
       <c r="AA87" s="25"/>
+      <c r="AB87" s="78"/>
+      <c r="AC87" s="25"/>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>45929</v>
       </c>
@@ -11408,8 +11656,10 @@
         <v>13</v>
       </c>
       <c r="AA88" s="25"/>
+      <c r="AB88" s="78"/>
+      <c r="AC88" s="25"/>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>45929</v>
       </c>
@@ -11480,8 +11730,10 @@
         <v>13</v>
       </c>
       <c r="AA89" s="25"/>
+      <c r="AB89" s="78"/>
+      <c r="AC89" s="25"/>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>45929</v>
       </c>
@@ -11552,8 +11804,10 @@
         <v>13</v>
       </c>
       <c r="AA90" s="25"/>
+      <c r="AB90" s="78"/>
+      <c r="AC90" s="25"/>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>45929</v>
       </c>
@@ -11624,8 +11878,10 @@
         <v>13</v>
       </c>
       <c r="AA91" s="25"/>
+      <c r="AB91" s="78"/>
+      <c r="AC91" s="25"/>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>45946</v>
       </c>
@@ -11696,8 +11952,10 @@
         <v>13</v>
       </c>
       <c r="AA92" s="25"/>
+      <c r="AB92" s="78"/>
+      <c r="AC92" s="25"/>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>45929</v>
       </c>
@@ -11768,8 +12026,10 @@
         <v>13</v>
       </c>
       <c r="AA93" s="25"/>
+      <c r="AB93" s="78"/>
+      <c r="AC93" s="25"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>45946</v>
       </c>
@@ -11787,7 +12047,7 @@
         <v>234</v>
       </c>
       <c r="G94" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="25" t="s">
@@ -11843,8 +12103,10 @@
         <v>13</v>
       </c>
       <c r="AA94" s="25"/>
+      <c r="AB94" s="78"/>
+      <c r="AC94" s="25"/>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>45946</v>
       </c>
@@ -11913,8 +12175,10 @@
         <v>13</v>
       </c>
       <c r="AA95" s="25"/>
+      <c r="AB95" s="78"/>
+      <c r="AC95" s="25"/>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>45946</v>
       </c>
@@ -11983,8 +12247,10 @@
         <v>13</v>
       </c>
       <c r="AA96" s="25"/>
+      <c r="AB96" s="78"/>
+      <c r="AC96" s="25"/>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>45946</v>
       </c>
@@ -12053,8 +12319,10 @@
         <v>13</v>
       </c>
       <c r="AA97" s="25"/>
+      <c r="AB97" s="78"/>
+      <c r="AC97" s="25"/>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>45946</v>
       </c>
@@ -12123,8 +12391,10 @@
         <v>13</v>
       </c>
       <c r="AA98" s="25"/>
+      <c r="AB98" s="78"/>
+      <c r="AC98" s="25"/>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>45946</v>
       </c>
@@ -12193,8 +12463,10 @@
         <v>13</v>
       </c>
       <c r="AA99" s="25"/>
+      <c r="AB99" s="78"/>
+      <c r="AC99" s="25"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>45946</v>
       </c>
@@ -12263,8 +12535,10 @@
         <v>13</v>
       </c>
       <c r="AA100" s="25"/>
+      <c r="AB100" s="78"/>
+      <c r="AC100" s="25"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>45946</v>
       </c>
@@ -12333,8 +12607,10 @@
         <v>13</v>
       </c>
       <c r="AA101" s="25"/>
+      <c r="AB101" s="78"/>
+      <c r="AC101" s="25"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>45946</v>
       </c>
@@ -12403,13 +12679,15 @@
         <v>13</v>
       </c>
       <c r="AA102" s="25"/>
+      <c r="AB102" s="78"/>
+      <c r="AC102" s="25"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>45989</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C103" s="25" t="s">
         <v>55</v>
@@ -12422,7 +12700,7 @@
         <v>76</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I103" s="22" t="s">
         <v>100</v>
@@ -12431,16 +12709,16 @@
         <v>160</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L103" s="26" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M103" s="26" t="s">
+        <v>942</v>
+      </c>
+      <c r="N103" s="27" t="s">
         <v>1094</v>
-      </c>
-      <c r="M103" s="26" t="s">
-        <v>943</v>
-      </c>
-      <c r="N103" s="27" t="s">
-        <v>1095</v>
       </c>
       <c r="O103" s="25" t="s">
         <v>13</v>
@@ -12477,8 +12755,10 @@
         <v>13</v>
       </c>
       <c r="AA103" s="25"/>
+      <c r="AB103" s="78"/>
+      <c r="AC103" s="25"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>45985</v>
       </c>
@@ -12496,7 +12776,7 @@
         <v>76</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I104" s="22" t="s">
         <v>100</v>
@@ -12505,16 +12785,16 @@
         <v>160</v>
       </c>
       <c r="K104" s="25" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L104" s="26">
         <v>261374637</v>
       </c>
       <c r="M104" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N104" s="27" t="s">
         <v>1007</v>
-      </c>
-      <c r="N104" s="27" t="s">
-        <v>1008</v>
       </c>
       <c r="O104" s="25" t="s">
         <v>13</v>
@@ -12549,8 +12829,10 @@
         <v>13</v>
       </c>
       <c r="AA104" s="25"/>
+      <c r="AB104" s="78"/>
+      <c r="AC104" s="25"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>45980</v>
       </c>
@@ -12571,7 +12853,7 @@
         <v>578</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I105" s="22" t="s">
         <v>100</v>
@@ -12580,16 +12862,16 @@
         <v>160</v>
       </c>
       <c r="K105" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>816</v>
+      </c>
+      <c r="M105" s="69" t="s">
         <v>942</v>
       </c>
-      <c r="L105" s="26" t="s">
-        <v>817</v>
-      </c>
-      <c r="M105" s="69" t="s">
-        <v>943</v>
-      </c>
       <c r="N105" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O105" s="25" t="s">
         <v>13</v>
@@ -12624,8 +12906,10 @@
         <v>13</v>
       </c>
       <c r="AA105" s="25"/>
+      <c r="AB105" s="78"/>
+      <c r="AC105" s="25"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>45975</v>
       </c>
@@ -12643,10 +12927,10 @@
         <v>76</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I106" s="22" t="s">
         <v>100</v>
@@ -12655,16 +12939,16 @@
         <v>160</v>
       </c>
       <c r="K106" s="25" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="L106" s="26" t="s">
         <v>736</v>
       </c>
       <c r="M106" s="26" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="N106" s="27" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O106" s="25" t="s">
         <v>13</v>
@@ -12699,8 +12983,10 @@
         <v>13</v>
       </c>
       <c r="AA106" s="25"/>
+      <c r="AB106" s="78"/>
+      <c r="AC106" s="25"/>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>45975</v>
       </c>
@@ -12718,10 +13004,10 @@
         <v>76</v>
       </c>
       <c r="G107" s="22" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I107" s="22" t="s">
         <v>100</v>
@@ -12730,16 +13016,16 @@
         <v>160</v>
       </c>
       <c r="K107" s="25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L107" s="26" t="s">
         <v>735</v>
       </c>
       <c r="M107" s="26" t="s">
+        <v>872</v>
+      </c>
+      <c r="N107" s="27" t="s">
         <v>873</v>
-      </c>
-      <c r="N107" s="27" t="s">
-        <v>874</v>
       </c>
       <c r="O107" s="25" t="s">
         <v>13</v>
@@ -12774,8 +13060,10 @@
         <v>13</v>
       </c>
       <c r="AA107" s="25"/>
+      <c r="AB107" s="78"/>
+      <c r="AC107" s="25"/>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>45980</v>
       </c>
@@ -12796,7 +13084,7 @@
         <v>578</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I108" s="22" t="s">
         <v>100</v>
@@ -12805,16 +13093,16 @@
         <v>160</v>
       </c>
       <c r="K108" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="L108" s="26" t="s">
+        <v>814</v>
+      </c>
+      <c r="M108" s="26" t="s">
+        <v>950</v>
+      </c>
+      <c r="N108" s="27" t="s">
         <v>949</v>
-      </c>
-      <c r="L108" s="26" t="s">
-        <v>815</v>
-      </c>
-      <c r="M108" s="26" t="s">
-        <v>951</v>
-      </c>
-      <c r="N108" s="27" t="s">
-        <v>950</v>
       </c>
       <c r="O108" s="25" t="s">
         <v>13</v>
@@ -12849,8 +13137,10 @@
         <v>13</v>
       </c>
       <c r="AA108" s="25"/>
+      <c r="AB108" s="78"/>
+      <c r="AC108" s="25"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>45985</v>
       </c>
@@ -12871,7 +13161,7 @@
         <v>578</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I109" s="22" t="s">
         <v>100</v>
@@ -12880,16 +13170,16 @@
         <v>160</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L109" s="26">
         <v>261374816</v>
       </c>
       <c r="M109" s="26" t="s">
+        <v>966</v>
+      </c>
+      <c r="N109" s="27" t="s">
         <v>967</v>
-      </c>
-      <c r="N109" s="27" t="s">
-        <v>968</v>
       </c>
       <c r="O109" s="25" t="s">
         <v>13</v>
@@ -12924,8 +13214,10 @@
         <v>13</v>
       </c>
       <c r="AA109" s="25"/>
+      <c r="AB109" s="78"/>
+      <c r="AC109" s="25"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>45985</v>
       </c>
@@ -12946,7 +13238,7 @@
         <v>578</v>
       </c>
       <c r="H110" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I110" s="22" t="s">
         <v>100</v>
@@ -12955,16 +13247,16 @@
         <v>160</v>
       </c>
       <c r="K110" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="L110" s="26">
         <v>261375044</v>
       </c>
       <c r="M110" s="26" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N110" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="O110" s="25" t="s">
         <v>13</v>
@@ -12999,8 +13291,10 @@
         <v>13</v>
       </c>
       <c r="AA110" s="25"/>
+      <c r="AB110" s="78"/>
+      <c r="AC110" s="25"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>45985</v>
       </c>
@@ -13021,7 +13315,7 @@
         <v>578</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I111" s="22" t="s">
         <v>100</v>
@@ -13030,16 +13324,16 @@
         <v>160</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="L111" s="26">
         <v>261374756</v>
       </c>
       <c r="M111" s="26" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="N111" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O111" s="25" t="s">
         <v>13</v>
@@ -13074,8 +13368,10 @@
         <v>13</v>
       </c>
       <c r="AA111" s="25"/>
+      <c r="AB111" s="78"/>
+      <c r="AC111" s="25"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>45981</v>
       </c>
@@ -13093,10 +13389,10 @@
         <v>76</v>
       </c>
       <c r="G112" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I112" s="22" t="s">
         <v>100</v>
@@ -13105,16 +13401,16 @@
         <v>160</v>
       </c>
       <c r="K112" s="25" t="s">
+        <v>974</v>
+      </c>
+      <c r="L112" s="26" t="s">
+        <v>850</v>
+      </c>
+      <c r="M112" s="26" t="s">
         <v>975</v>
       </c>
-      <c r="L112" s="26" t="s">
-        <v>851</v>
-      </c>
-      <c r="M112" s="26" t="s">
-        <v>976</v>
-      </c>
       <c r="N112" s="27" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="O112" s="25" t="s">
         <v>13</v>
@@ -13149,8 +13445,10 @@
         <v>13</v>
       </c>
       <c r="AA112" s="25"/>
+      <c r="AB112" s="78"/>
+      <c r="AC112" s="25"/>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>45987</v>
       </c>
@@ -13166,7 +13464,7 @@
       <c r="E113" s="25"/>
       <c r="F113" s="25"/>
       <c r="H113" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I113" s="22" t="s">
         <v>100</v>
@@ -13175,16 +13473,16 @@
         <v>160</v>
       </c>
       <c r="K113" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="L113" s="26">
         <v>261798940</v>
       </c>
       <c r="M113" s="26" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="N113" s="27" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="O113" s="25" t="s">
         <v>13</v>
@@ -13219,8 +13517,10 @@
         <v>13</v>
       </c>
       <c r="AA113" s="25"/>
+      <c r="AB113" s="78"/>
+      <c r="AC113" s="25"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>45987</v>
       </c>
@@ -13236,10 +13536,10 @@
       <c r="E114" s="25"/>
       <c r="F114" s="25"/>
       <c r="G114" s="22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I114" s="22" t="s">
         <v>100</v>
@@ -13248,16 +13548,16 @@
         <v>160</v>
       </c>
       <c r="K114" s="25" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="L114" s="26">
         <v>261798918</v>
       </c>
       <c r="M114" s="26" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="N114" s="27" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="O114" s="25" t="s">
         <v>13</v>
@@ -13292,8 +13592,10 @@
         <v>13</v>
       </c>
       <c r="AA114" s="25"/>
+      <c r="AB114" s="78"/>
+      <c r="AC114" s="25"/>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>45985</v>
       </c>
@@ -13311,10 +13613,10 @@
         <v>76</v>
       </c>
       <c r="G115" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I115" s="22" t="s">
         <v>100</v>
@@ -13323,16 +13625,16 @@
         <v>160</v>
       </c>
       <c r="K115" s="25" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>922</v>
+      </c>
+      <c r="M115" s="26" t="s">
         <v>1015</v>
       </c>
-      <c r="L115" s="26" t="s">
-        <v>923</v>
-      </c>
-      <c r="M115" s="26" t="s">
+      <c r="N115" s="27" t="s">
         <v>1016</v>
-      </c>
-      <c r="N115" s="27" t="s">
-        <v>1017</v>
       </c>
       <c r="O115" s="25" t="s">
         <v>13</v>
@@ -13367,8 +13669,10 @@
         <v>13</v>
       </c>
       <c r="AA115" s="25"/>
+      <c r="AB115" s="78"/>
+      <c r="AC115" s="25"/>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>45985</v>
       </c>
@@ -13386,10 +13690,10 @@
         <v>76</v>
       </c>
       <c r="G116" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I116" s="22" t="s">
         <v>100</v>
@@ -13398,16 +13702,16 @@
         <v>160</v>
       </c>
       <c r="K116" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L116" s="26" t="s">
+        <v>923</v>
+      </c>
+      <c r="M116" s="26" t="s">
         <v>1018</v>
       </c>
-      <c r="L116" s="26" t="s">
-        <v>924</v>
-      </c>
-      <c r="M116" s="26" t="s">
+      <c r="N116" s="27" t="s">
         <v>1019</v>
-      </c>
-      <c r="N116" s="27" t="s">
-        <v>1020</v>
       </c>
       <c r="O116" s="25" t="s">
         <v>13</v>
@@ -13442,8 +13746,10 @@
         <v>13</v>
       </c>
       <c r="AA116" s="25"/>
+      <c r="AB116" s="78"/>
+      <c r="AC116" s="25"/>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>45985</v>
       </c>
@@ -13461,10 +13767,10 @@
         <v>76</v>
       </c>
       <c r="G117" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H117" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I117" s="22" t="s">
         <v>100</v>
@@ -13473,16 +13779,16 @@
         <v>160</v>
       </c>
       <c r="K117" s="25" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L117" s="26" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="M117" s="26" t="s">
+        <v>1020</v>
+      </c>
+      <c r="N117" s="27" t="s">
         <v>1021</v>
-      </c>
-      <c r="N117" s="27" t="s">
-        <v>1022</v>
       </c>
       <c r="O117" s="25" t="s">
         <v>13</v>
@@ -13517,8 +13823,10 @@
         <v>13</v>
       </c>
       <c r="AA117" s="25"/>
+      <c r="AB117" s="78"/>
+      <c r="AC117" s="25"/>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>45985</v>
       </c>
@@ -13536,10 +13844,10 @@
         <v>76</v>
       </c>
       <c r="G118" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H118" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I118" s="22" t="s">
         <v>100</v>
@@ -13548,16 +13856,16 @@
         <v>160</v>
       </c>
       <c r="K118" s="25" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="L118" s="26" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M118" s="26" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="N118" s="27" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O118" s="25" t="s">
         <v>13</v>
@@ -13592,8 +13900,10 @@
         <v>13</v>
       </c>
       <c r="AA118" s="25"/>
+      <c r="AB118" s="78"/>
+      <c r="AC118" s="25"/>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>45985</v>
       </c>
@@ -13611,10 +13921,10 @@
         <v>76</v>
       </c>
       <c r="G119" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I119" s="22" t="s">
         <v>100</v>
@@ -13623,16 +13933,16 @@
         <v>160</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L119" s="26" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M119" s="26" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="N119" s="27" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O119" s="25" t="s">
         <v>13</v>
@@ -13667,8 +13977,10 @@
         <v>13</v>
       </c>
       <c r="AA119" s="25"/>
+      <c r="AB119" s="78"/>
+      <c r="AC119" s="25"/>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>45975</v>
       </c>
@@ -13686,7 +13998,7 @@
         <v>76</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I120" s="22" t="s">
         <v>100</v>
@@ -13695,16 +14007,16 @@
         <v>160</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L120" s="26" t="s">
         <v>727</v>
       </c>
       <c r="M120" s="26" t="s">
+        <v>875</v>
+      </c>
+      <c r="N120" s="27" t="s">
         <v>876</v>
-      </c>
-      <c r="N120" s="27" t="s">
-        <v>877</v>
       </c>
       <c r="O120" s="25" t="s">
         <v>13</v>
@@ -13733,14 +14045,16 @@
         <v>42</v>
       </c>
       <c r="Y120" s="27" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Z120" s="27" t="s">
         <v>13</v>
       </c>
       <c r="AA120" s="25"/>
+      <c r="AB120" s="78"/>
+      <c r="AC120" s="25"/>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
         <v>45987</v>
       </c>
@@ -13758,10 +14072,10 @@
         <v>76</v>
       </c>
       <c r="G121" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H121" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I121" s="22" t="s">
         <v>100</v>
@@ -13770,16 +14084,16 @@
         <v>148</v>
       </c>
       <c r="K121" s="25" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="L121" s="26" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="M121" s="26" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="N121" s="27" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O121" s="25" t="s">
         <v>13</v>
@@ -13814,8 +14128,10 @@
         <v>13</v>
       </c>
       <c r="AA121" s="25"/>
+      <c r="AB121" s="78"/>
+      <c r="AC121" s="25"/>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>45987</v>
       </c>
@@ -13833,10 +14149,10 @@
         <v>76</v>
       </c>
       <c r="G122" s="22" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I122" s="22" t="s">
         <v>100</v>
@@ -13845,16 +14161,16 @@
         <v>148</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L122" s="26" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M122" s="26" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="N122" s="27" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="O122" s="25" t="s">
         <v>13</v>
@@ -13889,8 +14205,10 @@
         <v>13</v>
       </c>
       <c r="AA122" s="25"/>
+      <c r="AB122" s="78"/>
+      <c r="AC122" s="25"/>
     </row>
-    <row r="123" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>45894</v>
       </c>
@@ -13970,8 +14288,10 @@
         <v>13</v>
       </c>
       <c r="AA123" s="10"/>
+      <c r="AB123" s="75"/>
+      <c r="AC123" s="10"/>
     </row>
-    <row r="124" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>45915</v>
       </c>
@@ -14051,8 +14371,10 @@
         <v>13</v>
       </c>
       <c r="AA124" s="10"/>
+      <c r="AB124" s="75"/>
+      <c r="AC124" s="10"/>
     </row>
-    <row r="125" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>45915</v>
       </c>
@@ -14132,8 +14454,10 @@
         <v>13</v>
       </c>
       <c r="AA125" s="10"/>
+      <c r="AB125" s="75"/>
+      <c r="AC125" s="10"/>
     </row>
-    <row r="126" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>45894</v>
       </c>
@@ -14213,8 +14537,10 @@
         <v>13</v>
       </c>
       <c r="AA126" s="10"/>
+      <c r="AB126" s="75"/>
+      <c r="AC126" s="10"/>
     </row>
-    <row r="127" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="10">
         <v>45930</v>
       </c>
@@ -14294,8 +14620,10 @@
         <v>13</v>
       </c>
       <c r="AA127" s="10"/>
+      <c r="AB127" s="80"/>
+      <c r="AC127" s="10"/>
     </row>
-    <row r="128" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="52">
         <v>45936</v>
       </c>
@@ -14375,8 +14703,10 @@
         <v>13</v>
       </c>
       <c r="AA128" s="52"/>
+      <c r="AB128" s="80"/>
+      <c r="AC128" s="52"/>
     </row>
-    <row r="129" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="10">
         <v>45957</v>
       </c>
@@ -14456,8 +14786,10 @@
         <v>13</v>
       </c>
       <c r="AA129" s="10"/>
+      <c r="AB129" s="80"/>
+      <c r="AC129" s="10"/>
     </row>
-    <row r="130" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="10">
         <v>45951</v>
       </c>
@@ -14483,7 +14815,7 @@
         <v>45978</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J130" s="10" t="s">
         <v>13</v>
@@ -14537,8 +14869,10 @@
         <v>13</v>
       </c>
       <c r="AA130" s="10"/>
+      <c r="AB130" s="75"/>
+      <c r="AC130" s="10"/>
     </row>
-    <row r="131" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="52">
         <v>45915</v>
       </c>
@@ -14618,8 +14952,10 @@
         <v>13</v>
       </c>
       <c r="AA131" s="52"/>
+      <c r="AB131" s="75"/>
+      <c r="AC131" s="52"/>
     </row>
-    <row r="132" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="52">
         <v>45945</v>
       </c>
@@ -14699,8 +15035,10 @@
         <v>13</v>
       </c>
       <c r="AA132" s="52"/>
+      <c r="AB132" s="75"/>
+      <c r="AC132" s="52"/>
     </row>
-    <row r="133" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="10">
         <v>45952</v>
       </c>
@@ -14780,8 +15118,10 @@
         <v>13</v>
       </c>
       <c r="AA133" s="10"/>
+      <c r="AB133" s="75"/>
+      <c r="AC133" s="10"/>
     </row>
-    <row r="134" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="10">
         <v>45952</v>
       </c>
@@ -14859,8 +15199,10 @@
         <v>13</v>
       </c>
       <c r="AA134" s="10"/>
+      <c r="AB134" s="75"/>
+      <c r="AC134" s="10"/>
     </row>
-    <row r="135" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10">
         <v>45936</v>
       </c>
@@ -14940,8 +15282,10 @@
         <v>13</v>
       </c>
       <c r="AA135" s="10"/>
+      <c r="AB135" s="80"/>
+      <c r="AC135" s="10"/>
     </row>
-    <row r="136" spans="1:27" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10">
         <v>45929</v>
       </c>
@@ -15021,8 +15365,10 @@
         <v>13</v>
       </c>
       <c r="AA136" s="10"/>
+      <c r="AB136" s="80"/>
+      <c r="AC136" s="10"/>
     </row>
-    <row r="137" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10">
         <v>45915</v>
       </c>
@@ -15102,8 +15448,10 @@
         <v>13</v>
       </c>
       <c r="AA137" s="10"/>
+      <c r="AB137" s="75"/>
+      <c r="AC137" s="10"/>
     </row>
-    <row r="138" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10">
         <v>45915</v>
       </c>
@@ -15183,8 +15531,10 @@
         <v>13</v>
       </c>
       <c r="AA138" s="10"/>
+      <c r="AB138" s="75"/>
+      <c r="AC138" s="10"/>
     </row>
-    <row r="139" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="37">
         <v>45939</v>
       </c>
@@ -15264,8 +15614,10 @@
         <v>13</v>
       </c>
       <c r="AA139" s="37"/>
+      <c r="AB139" s="81"/>
+      <c r="AC139" s="37"/>
     </row>
-    <row r="140" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="37">
         <v>45960</v>
       </c>
@@ -15345,8 +15697,10 @@
         <v>13</v>
       </c>
       <c r="AA140" s="37"/>
+      <c r="AB140" s="82"/>
+      <c r="AC140" s="37"/>
     </row>
-    <row r="141" spans="1:27" s="68" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" s="68" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="37">
         <v>45953</v>
       </c>
@@ -15426,8 +15780,10 @@
         <v>13</v>
       </c>
       <c r="AA141" s="37"/>
+      <c r="AB141" s="82"/>
+      <c r="AC141" s="37"/>
     </row>
-    <row r="142" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="37">
         <v>45936</v>
       </c>
@@ -15507,8 +15863,10 @@
         <v>13</v>
       </c>
       <c r="AA142" s="37"/>
+      <c r="AB142" s="81"/>
+      <c r="AC142" s="37"/>
     </row>
-    <row r="143" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="37">
         <v>45936</v>
       </c>
@@ -15588,8 +15946,10 @@
         <v>13</v>
       </c>
       <c r="AA143" s="37"/>
+      <c r="AB143" s="81"/>
+      <c r="AC143" s="37"/>
     </row>
-    <row r="144" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="37">
         <v>45957</v>
       </c>
@@ -15669,8 +16029,10 @@
         <v>13</v>
       </c>
       <c r="AA144" s="37"/>
+      <c r="AB144" s="81"/>
+      <c r="AC144" s="37"/>
     </row>
-    <row r="145" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="37">
         <v>45951</v>
       </c>
@@ -15750,8 +16112,10 @@
         <v>13</v>
       </c>
       <c r="AA145" s="37"/>
+      <c r="AB145" s="81"/>
+      <c r="AC145" s="37"/>
     </row>
-    <row r="146" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="37">
         <v>45940</v>
       </c>
@@ -15831,8 +16195,10 @@
         <v>13</v>
       </c>
       <c r="AA146" s="37"/>
+      <c r="AB146" s="81"/>
+      <c r="AC146" s="37"/>
     </row>
-    <row r="147" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="37">
         <v>45939</v>
       </c>
@@ -15912,8 +16278,10 @@
         <v>13</v>
       </c>
       <c r="AA147" s="37"/>
+      <c r="AB147" s="81"/>
+      <c r="AC147" s="37"/>
     </row>
-    <row r="148" spans="1:27" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="37">
         <v>45925</v>
       </c>
@@ -15939,7 +16307,7 @@
         <v>45985</v>
       </c>
       <c r="I148" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="J148" s="37" t="s">
         <v>650</v>
@@ -15991,8 +16359,10 @@
         <v>13</v>
       </c>
       <c r="AA148" s="37"/>
+      <c r="AB148" s="81"/>
+      <c r="AC148" s="37"/>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>45930</v>
       </c>
@@ -16063,8 +16433,10 @@
         <v>13</v>
       </c>
       <c r="AA149" s="25"/>
+      <c r="AB149" s="78"/>
+      <c r="AC149" s="25"/>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>45954</v>
       </c>
@@ -16093,7 +16465,7 @@
         <v>745</v>
       </c>
       <c r="J150" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K150" s="25" t="s">
         <v>438</v>
@@ -16142,8 +16514,10 @@
         <v>13</v>
       </c>
       <c r="AA150" s="25"/>
+      <c r="AB150" s="78"/>
+      <c r="AC150" s="25"/>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>45957</v>
       </c>
@@ -16166,7 +16540,7 @@
         <v>137</v>
       </c>
       <c r="H151" s="46" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I151" s="25" t="s">
         <v>23</v>
@@ -16221,8 +16595,10 @@
         <v>13</v>
       </c>
       <c r="AA151" s="25"/>
+      <c r="AB151" s="78"/>
+      <c r="AC151" s="25"/>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>45961</v>
       </c>
@@ -16257,7 +16633,7 @@
         <v>560</v>
       </c>
       <c r="N152" s="27" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O152" s="25" t="s">
         <v>13</v>
@@ -16294,8 +16670,10 @@
         <v>13</v>
       </c>
       <c r="AA152" s="25"/>
+      <c r="AB152" s="78"/>
+      <c r="AC152" s="25"/>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>45950</v>
       </c>
@@ -16319,10 +16697,10 @@
       </c>
       <c r="H153" s="25"/>
       <c r="I153" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J153" s="62" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K153" s="25" t="s">
         <v>426</v>
@@ -16371,8 +16749,10 @@
         <v>13</v>
       </c>
       <c r="AA153" s="25"/>
+      <c r="AB153" s="78"/>
+      <c r="AC153" s="25"/>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>45946</v>
       </c>
@@ -16450,8 +16830,10 @@
         <v>13</v>
       </c>
       <c r="AA154" s="25"/>
+      <c r="AB154" s="78"/>
+      <c r="AC154" s="25"/>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>45967</v>
       </c>
@@ -16468,14 +16850,14 @@
         <v>45985</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G155" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H155" s="25"/>
       <c r="I155" s="25" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J155" s="25" t="s">
         <v>13</v>
@@ -16527,8 +16909,10 @@
         <v>13</v>
       </c>
       <c r="AA155" s="25"/>
+      <c r="AB155" s="78"/>
+      <c r="AC155" s="25"/>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
         <v>45959</v>
       </c>
@@ -16555,7 +16939,7 @@
         <v>13</v>
       </c>
       <c r="J156" s="25" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K156" s="25" t="s">
         <v>634</v>
@@ -16606,8 +16990,10 @@
         <v>13</v>
       </c>
       <c r="AA156" s="25"/>
+      <c r="AB156" s="78"/>
+      <c r="AC156" s="25"/>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>45954</v>
       </c>
@@ -16634,7 +17020,7 @@
         <v>741</v>
       </c>
       <c r="J157" s="22" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K157" s="25" t="s">
         <v>463</v>
@@ -16683,8 +17069,10 @@
         <v>13</v>
       </c>
       <c r="AA157" s="25"/>
+      <c r="AB157" s="78"/>
+      <c r="AC157" s="25"/>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
         <v>45973</v>
       </c>
@@ -16716,16 +17104,16 @@
         <v>13</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="L158" s="26" t="s">
         <v>679</v>
       </c>
       <c r="M158" s="26" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N158" s="27" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O158" s="25" t="s">
         <v>26</v>
@@ -16762,13 +17150,15 @@
         <v>13</v>
       </c>
       <c r="AA158" s="25"/>
+      <c r="AB158" s="78"/>
+      <c r="AC158" s="25"/>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="25">
         <v>45981</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C159" s="25" t="s">
         <v>55</v>
@@ -16779,7 +17169,7 @@
       <c r="E159" s="25"/>
       <c r="F159" s="25"/>
       <c r="H159" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I159" s="22" t="s">
         <v>100</v>
@@ -16788,16 +17178,16 @@
         <v>109</v>
       </c>
       <c r="K159" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="L159" s="26" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M159" s="26" t="s">
         <v>862</v>
       </c>
-      <c r="L159" s="26" t="s">
-        <v>1069</v>
-      </c>
-      <c r="M159" s="26" t="s">
+      <c r="N159" s="27" t="s">
         <v>863</v>
-      </c>
-      <c r="N159" s="27" t="s">
-        <v>864</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>13</v>
@@ -16834,8 +17224,10 @@
         <v>13</v>
       </c>
       <c r="AA159" s="25"/>
+      <c r="AB159" s="78"/>
+      <c r="AC159" s="25"/>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
         <v>45974</v>
       </c>
@@ -16852,31 +17244,31 @@
         <v>45985</v>
       </c>
       <c r="F160" s="25" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G160" s="25" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H160" s="22" t="s">
         <v>106</v>
       </c>
       <c r="I160" s="46" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K160" s="25" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L160" s="26" t="s">
         <v>688</v>
       </c>
       <c r="M160" s="26" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N160" s="27" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="O160" s="25" t="s">
         <v>26</v>
@@ -16913,8 +17305,10 @@
         <v>13</v>
       </c>
       <c r="AA160" s="25"/>
+      <c r="AB160" s="78"/>
+      <c r="AC160" s="25"/>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="25">
         <v>45931</v>
       </c>
@@ -16983,8 +17377,10 @@
         <v>13</v>
       </c>
       <c r="AA161" s="25"/>
+      <c r="AB161" s="78"/>
+      <c r="AC161" s="25"/>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="25">
         <v>45974</v>
       </c>
@@ -17007,16 +17403,16 @@
         <v>13</v>
       </c>
       <c r="K162" s="25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="L162" s="26" t="s">
         <v>687</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="N162" s="27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>26</v>
@@ -17053,8 +17449,10 @@
         <v>13</v>
       </c>
       <c r="AA162" s="25"/>
+      <c r="AB162" s="78"/>
+      <c r="AC162" s="25"/>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
         <v>45974</v>
       </c>
@@ -17071,22 +17469,22 @@
       <c r="F163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="22" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L163" s="26" t="s">
         <v>686</v>
       </c>
       <c r="M163" s="26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="N163" s="27" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O163" s="25" t="s">
         <v>26</v>
@@ -17123,8 +17521,10 @@
         <v>13</v>
       </c>
       <c r="AA163" s="25"/>
+      <c r="AB163" s="78"/>
+      <c r="AC163" s="25"/>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="25">
         <v>45979</v>
       </c>
@@ -17147,16 +17547,16 @@
         <v>129</v>
       </c>
       <c r="K164" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="L164" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="M164" s="26" t="s">
+        <v>853</v>
+      </c>
+      <c r="N164" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="L164" s="26" t="s">
-        <v>787</v>
-      </c>
-      <c r="M164" s="26" t="s">
-        <v>854</v>
-      </c>
-      <c r="N164" s="27" t="s">
-        <v>856</v>
       </c>
       <c r="O164" s="25" t="s">
         <v>13</v>
@@ -17193,8 +17593,10 @@
         <v>13</v>
       </c>
       <c r="AA164" s="25"/>
+      <c r="AB164" s="78"/>
+      <c r="AC164" s="25"/>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
         <v>45980</v>
       </c>
@@ -17212,7 +17614,7 @@
         <v>76</v>
       </c>
       <c r="H165" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I165" s="22" t="s">
         <v>100</v>
@@ -17221,16 +17623,16 @@
         <v>129</v>
       </c>
       <c r="K165" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="L165" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="M165" s="26" t="s">
         <v>947</v>
       </c>
-      <c r="L165" s="26" t="s">
-        <v>816</v>
-      </c>
-      <c r="M165" s="26" t="s">
-        <v>948</v>
-      </c>
       <c r="N165" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>13</v>
@@ -17269,8 +17671,10 @@
         <v>13</v>
       </c>
       <c r="AA165" s="25"/>
+      <c r="AB165" s="78"/>
+      <c r="AC165" s="25"/>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="25">
         <v>45980</v>
       </c>
@@ -17288,10 +17692,10 @@
         <v>76</v>
       </c>
       <c r="G166" s="25" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H166" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I166" s="22" t="s">
         <v>100</v>
@@ -17300,16 +17704,16 @@
         <v>129</v>
       </c>
       <c r="K166" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="L166" s="26" t="s">
+        <v>810</v>
+      </c>
+      <c r="M166" s="26" t="s">
         <v>938</v>
       </c>
-      <c r="L166" s="26" t="s">
-        <v>811</v>
-      </c>
-      <c r="M166" s="26" t="s">
+      <c r="N166" s="27" t="s">
         <v>939</v>
-      </c>
-      <c r="N166" s="27" t="s">
-        <v>940</v>
       </c>
       <c r="O166" s="25" t="s">
         <v>13</v>
@@ -17348,8 +17752,10 @@
         <v>13</v>
       </c>
       <c r="AA166" s="25"/>
+      <c r="AB166" s="78"/>
+      <c r="AC166" s="25"/>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
         <v>45980</v>
       </c>
@@ -17365,7 +17771,7 @@
       <c r="E167" s="25"/>
       <c r="F167" s="25"/>
       <c r="H167" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I167" s="22" t="s">
         <v>100</v>
@@ -17374,16 +17780,16 @@
         <v>129</v>
       </c>
       <c r="K167" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="L167" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="M167" s="26" t="s">
+        <v>958</v>
+      </c>
+      <c r="N167" s="27" t="s">
         <v>957</v>
-      </c>
-      <c r="L167" s="26" t="s">
-        <v>814</v>
-      </c>
-      <c r="M167" s="26" t="s">
-        <v>959</v>
-      </c>
-      <c r="N167" s="27" t="s">
-        <v>958</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>13</v>
@@ -17422,8 +17828,10 @@
         <v>13</v>
       </c>
       <c r="AA167" s="25"/>
+      <c r="AB167" s="78"/>
+      <c r="AC167" s="25"/>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
         <v>45980</v>
       </c>
@@ -17439,7 +17847,7 @@
       <c r="E168" s="25"/>
       <c r="F168" s="25"/>
       <c r="H168" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I168" s="22" t="s">
         <v>100</v>
@@ -17448,16 +17856,16 @@
         <v>129</v>
       </c>
       <c r="K168" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="L168" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>961</v>
+      </c>
+      <c r="N168" s="27" t="s">
         <v>960</v>
-      </c>
-      <c r="L168" s="26" t="s">
-        <v>813</v>
-      </c>
-      <c r="M168" s="26" t="s">
-        <v>962</v>
-      </c>
-      <c r="N168" s="27" t="s">
-        <v>961</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>13</v>
@@ -17496,8 +17904,10 @@
         <v>13</v>
       </c>
       <c r="AA168" s="25"/>
+      <c r="AB168" s="78"/>
+      <c r="AC168" s="25"/>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
         <v>45980</v>
       </c>
@@ -17513,7 +17923,7 @@
       <c r="E169" s="25"/>
       <c r="F169" s="25"/>
       <c r="H169" s="22" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I169" s="22" t="s">
         <v>100</v>
@@ -17522,16 +17932,16 @@
         <v>129</v>
       </c>
       <c r="K169" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="L169" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="M169" s="26" t="s">
         <v>963</v>
       </c>
-      <c r="L169" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="M169" s="26" t="s">
+      <c r="N169" s="27" t="s">
         <v>964</v>
-      </c>
-      <c r="N169" s="27" t="s">
-        <v>965</v>
       </c>
       <c r="O169" s="25" t="s">
         <v>13</v>
@@ -17570,8 +17980,10 @@
         <v>13</v>
       </c>
       <c r="AA169" s="25"/>
+      <c r="AB169" s="78"/>
+      <c r="AC169" s="25"/>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
         <v>45952</v>
       </c>
@@ -17588,10 +18000,10 @@
       <c r="F170" s="25"/>
       <c r="H170" s="62"/>
       <c r="I170" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J170" s="62" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K170" s="25" t="s">
         <v>630</v>
@@ -17640,8 +18052,10 @@
         <v>13</v>
       </c>
       <c r="AA170" s="25"/>
+      <c r="AB170" s="78"/>
+      <c r="AC170" s="25"/>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="25">
         <v>45951</v>
       </c>
@@ -17710,8 +18124,10 @@
         <v>13</v>
       </c>
       <c r="AA171" s="25"/>
+      <c r="AB171" s="78"/>
+      <c r="AC171" s="25"/>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="25">
         <v>45968</v>
       </c>
@@ -17727,7 +18143,7 @@
       <c r="E172" s="25"/>
       <c r="F172" s="25"/>
       <c r="H172" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I172" s="22" t="s">
         <v>100</v>
@@ -17736,16 +18152,16 @@
         <v>129</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="L172" s="26" t="s">
         <v>572</v>
       </c>
       <c r="M172" s="26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N172" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O172" s="25" t="s">
         <v>13</v>
@@ -17782,8 +18198,10 @@
         <v>13</v>
       </c>
       <c r="AA172" s="25"/>
+      <c r="AB172" s="78"/>
+      <c r="AC172" s="25"/>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
         <v>45966</v>
       </c>
@@ -17806,16 +18224,16 @@
         <v>13</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L173" s="26" t="s">
         <v>544</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N173" s="27" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="O173" s="25" t="s">
         <v>13</v>
@@ -17852,8 +18270,10 @@
         <v>13</v>
       </c>
       <c r="AA173" s="25"/>
+      <c r="AB173" s="78"/>
+      <c r="AC173" s="25"/>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="25">
         <v>45968</v>
       </c>
@@ -17870,22 +18290,22 @@
       <c r="F174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J174" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L174" s="26" t="s">
         <v>571</v>
       </c>
       <c r="M174" s="26" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N174" s="27" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O174" s="25" t="s">
         <v>26</v>
@@ -17922,8 +18342,10 @@
         <v>13</v>
       </c>
       <c r="AA174" s="25"/>
+      <c r="AB174" s="78"/>
+      <c r="AC174" s="25"/>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="25">
         <v>45952</v>
       </c>
@@ -17940,7 +18362,7 @@
       <c r="F175" s="25"/>
       <c r="H175" s="62"/>
       <c r="I175" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J175" s="25" t="s">
         <v>13</v>
@@ -17992,8 +18414,10 @@
         <v>13</v>
       </c>
       <c r="AA175" s="25"/>
+      <c r="AB175" s="78"/>
+      <c r="AC175" s="25"/>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="25">
         <v>45964</v>
       </c>
@@ -18060,8 +18484,10 @@
         <v>13</v>
       </c>
       <c r="AA176" s="25"/>
+      <c r="AB176" s="78"/>
+      <c r="AC176" s="25"/>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
         <v>45985</v>
       </c>
@@ -18084,16 +18510,16 @@
         <v>129</v>
       </c>
       <c r="K177" s="25" t="s">
+        <v>999</v>
+      </c>
+      <c r="L177" s="26" t="s">
+        <v>920</v>
+      </c>
+      <c r="M177" s="26" t="s">
         <v>1000</v>
       </c>
-      <c r="L177" s="26" t="s">
-        <v>921</v>
-      </c>
-      <c r="M177" s="26" t="s">
-        <v>1001</v>
-      </c>
       <c r="N177" s="27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O177" s="25" t="s">
         <v>13</v>
@@ -18130,8 +18556,10 @@
         <v>13</v>
       </c>
       <c r="AA177" s="25"/>
+      <c r="AB177" s="78"/>
+      <c r="AC177" s="25"/>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
         <v>45985</v>
       </c>
@@ -18154,16 +18582,16 @@
         <v>129</v>
       </c>
       <c r="K178" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L178" s="26" t="s">
+        <v>921</v>
+      </c>
+      <c r="M178" s="26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N178" s="27" t="s">
         <v>1003</v>
-      </c>
-      <c r="L178" s="26" t="s">
-        <v>922</v>
-      </c>
-      <c r="M178" s="26" t="s">
-        <v>1002</v>
-      </c>
-      <c r="N178" s="27" t="s">
-        <v>1004</v>
       </c>
       <c r="O178" s="25" t="s">
         <v>13</v>
@@ -18200,8 +18628,10 @@
         <v>13</v>
       </c>
       <c r="AA178" s="25"/>
+      <c r="AB178" s="78"/>
+      <c r="AC178" s="25"/>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>45972</v>
       </c>
@@ -18218,22 +18648,22 @@
       <c r="F179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J179" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K179" s="25" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L179" s="26" t="s">
         <v>664</v>
       </c>
       <c r="M179" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="N179" s="27" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O179" s="25" t="s">
         <v>26</v>
@@ -18270,8 +18700,10 @@
         <v>13</v>
       </c>
       <c r="AA179" s="25"/>
+      <c r="AB179" s="78"/>
+      <c r="AC179" s="25"/>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
         <v>45975</v>
       </c>
@@ -18294,16 +18726,16 @@
         <v>13</v>
       </c>
       <c r="K180" s="25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="L180" s="26" t="s">
         <v>728</v>
       </c>
       <c r="M180" s="26" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N180" s="27" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O180" s="25" t="s">
         <v>26</v>
@@ -18338,8 +18770,10 @@
         <v>13</v>
       </c>
       <c r="AA180" s="25"/>
+      <c r="AB180" s="78"/>
+      <c r="AC180" s="25"/>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>45978</v>
       </c>
@@ -18362,16 +18796,16 @@
         <v>13</v>
       </c>
       <c r="K181" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L181" s="26" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M181" s="26" t="s">
+        <v>880</v>
+      </c>
+      <c r="N181" s="27" t="s">
         <v>881</v>
-      </c>
-      <c r="N181" s="27" t="s">
-        <v>882</v>
       </c>
       <c r="O181" s="25" t="s">
         <v>13</v>
@@ -18382,7 +18816,7 @@
       <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
       <c r="S181" s="27" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="T181" s="27" t="s">
         <v>20</v>
@@ -18406,13 +18840,15 @@
         <v>13</v>
       </c>
       <c r="AA181" s="25"/>
+      <c r="AB181" s="78"/>
+      <c r="AC181" s="25"/>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="25">
         <v>45987</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C182" s="25" t="s">
         <v>55</v>
@@ -18430,16 +18866,16 @@
         <v>13</v>
       </c>
       <c r="K182" s="25" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L182" s="26" t="s">
+        <v>984</v>
+      </c>
+      <c r="M182" s="26" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N182" s="27" t="s">
         <v>1063</v>
-      </c>
-      <c r="L182" s="26" t="s">
-        <v>985</v>
-      </c>
-      <c r="M182" s="26" t="s">
-        <v>1065</v>
-      </c>
-      <c r="N182" s="27" t="s">
-        <v>1064</v>
       </c>
       <c r="O182" s="25" t="s">
         <v>26</v>
@@ -18476,8 +18912,10 @@
         <v>13</v>
       </c>
       <c r="AA182" s="25"/>
+      <c r="AB182" s="78"/>
+      <c r="AC182" s="25"/>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="25">
         <v>45964</v>
       </c>
@@ -18548,8 +18986,10 @@
         <v>13</v>
       </c>
       <c r="AA183" s="25"/>
+      <c r="AB183" s="78"/>
+      <c r="AC183" s="25"/>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="25">
         <v>45979</v>
       </c>
@@ -18572,7 +19012,7 @@
         <v>578</v>
       </c>
       <c r="H184" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I184" s="22" t="s">
         <v>100</v>
@@ -18581,16 +19021,16 @@
         <v>160</v>
       </c>
       <c r="K184" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="L184" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="M184" s="26" t="s">
         <v>909</v>
       </c>
-      <c r="L184" s="26" t="s">
-        <v>788</v>
-      </c>
-      <c r="M184" s="26" t="s">
-        <v>910</v>
-      </c>
       <c r="N184" s="27" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O184" s="25" t="s">
         <v>13</v>
@@ -18625,8 +19065,10 @@
         <v>13</v>
       </c>
       <c r="AA184" s="25"/>
+      <c r="AB184" s="78"/>
+      <c r="AC184" s="25"/>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="25">
         <v>45979</v>
       </c>
@@ -18643,13 +19085,13 @@
         <v>145</v>
       </c>
       <c r="F185" s="46" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G185" s="22" t="s">
         <v>578</v>
       </c>
       <c r="H185" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I185" s="22" t="s">
         <v>100</v>
@@ -18658,16 +19100,16 @@
         <v>160</v>
       </c>
       <c r="K185" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="L185" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="M185" s="26" t="s">
         <v>912</v>
       </c>
-      <c r="L185" s="26" t="s">
-        <v>789</v>
-      </c>
-      <c r="M185" s="26" t="s">
-        <v>913</v>
-      </c>
       <c r="N185" s="27" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="O185" s="25" t="s">
         <v>13</v>
@@ -18702,8 +19144,10 @@
         <v>13</v>
       </c>
       <c r="AA185" s="25"/>
+      <c r="AB185" s="78"/>
+      <c r="AC185" s="25"/>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="25">
         <v>45950</v>
       </c>
@@ -18720,10 +19164,10 @@
       <c r="F186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="22" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J186" s="62" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K186" s="25" t="s">
         <v>422</v>
@@ -18772,8 +19216,10 @@
         <v>13</v>
       </c>
       <c r="AA186" s="25"/>
+      <c r="AB186" s="78"/>
+      <c r="AC186" s="25"/>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="25">
         <v>45989</v>
       </c>
@@ -18796,16 +19242,16 @@
         <v>13</v>
       </c>
       <c r="K187" s="25" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L187" s="26" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M187" s="26" t="s">
         <v>1085</v>
       </c>
-      <c r="L187" s="26" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M187" s="26" t="s">
-        <v>1086</v>
-      </c>
       <c r="N187" s="27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O187" s="25" t="s">
         <v>26</v>
@@ -18840,8 +19286,10 @@
         <v>13</v>
       </c>
       <c r="AA187" s="25"/>
+      <c r="AB187" s="78"/>
+      <c r="AC187" s="25"/>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="25">
         <v>45989</v>
       </c>
@@ -18864,16 +19312,16 @@
         <v>13</v>
       </c>
       <c r="K188" s="25" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L188" s="26" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M188" s="26" t="s">
         <v>1087</v>
       </c>
-      <c r="L188" s="26" t="s">
-        <v>1072</v>
-      </c>
-      <c r="M188" s="26" t="s">
+      <c r="N188" s="27" t="s">
         <v>1088</v>
-      </c>
-      <c r="N188" s="27" t="s">
-        <v>1089</v>
       </c>
       <c r="O188" s="25" t="s">
         <v>26</v>
@@ -18908,8 +19356,10 @@
         <v>13</v>
       </c>
       <c r="AA188" s="25"/>
+      <c r="AB188" s="78"/>
+      <c r="AC188" s="25"/>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="25">
         <v>45964</v>
       </c>
@@ -18981,8 +19431,10 @@
         <v>13</v>
       </c>
       <c r="AA189" s="25"/>
+      <c r="AB189" s="78"/>
+      <c r="AC189" s="25"/>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="25">
         <v>45964</v>
       </c>
@@ -19056,8 +19508,10 @@
         <v>13</v>
       </c>
       <c r="AA190" s="25"/>
+      <c r="AB190" s="78"/>
+      <c r="AC190" s="25"/>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="25">
         <v>45964</v>
       </c>
@@ -19131,8 +19585,10 @@
         <v>13</v>
       </c>
       <c r="AA191" s="25"/>
+      <c r="AB191" s="78"/>
+      <c r="AC191" s="25"/>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="25">
         <v>45968</v>
       </c>
@@ -19206,13 +19662,15 @@
         <v>13</v>
       </c>
       <c r="AA192" s="25"/>
+      <c r="AB192" s="78"/>
+      <c r="AC192" s="25"/>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="25">
         <v>45986</v>
       </c>
       <c r="B193" s="24" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C193" s="25" t="s">
         <v>55</v>
@@ -19230,16 +19688,16 @@
         <v>13</v>
       </c>
       <c r="K193" s="25" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L193" s="26" t="s">
+        <v>952</v>
+      </c>
+      <c r="M193" s="26" t="s">
         <v>1037</v>
       </c>
-      <c r="L193" s="26" t="s">
-        <v>953</v>
-      </c>
-      <c r="M193" s="26" t="s">
-        <v>1038</v>
-      </c>
       <c r="N193" s="27" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="O193" s="25" t="s">
         <v>13</v>
@@ -19274,8 +19732,10 @@
         <v>13</v>
       </c>
       <c r="AA193" s="25"/>
+      <c r="AB193" s="78"/>
+      <c r="AC193" s="25"/>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="25">
         <v>45973</v>
       </c>
@@ -19295,19 +19755,19 @@
         <v>139</v>
       </c>
       <c r="J194" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L194" s="26" t="s">
         <v>680</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="N194" s="27" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="O194" s="25" t="s">
         <v>13</v>
@@ -19342,8 +19802,10 @@
         <v>13</v>
       </c>
       <c r="AA194" s="25"/>
+      <c r="AB194" s="78"/>
+      <c r="AC194" s="25"/>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="25">
         <v>45979</v>
       </c>
@@ -19357,11 +19819,11 @@
         <v>12</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F195" s="25"/>
       <c r="H195" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I195" s="22" t="s">
         <v>100</v>
@@ -19370,16 +19832,16 @@
         <v>160</v>
       </c>
       <c r="K195" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="L195" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="M195" s="26" t="s">
         <v>906</v>
       </c>
-      <c r="L195" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="M195" s="26" t="s">
-        <v>907</v>
-      </c>
       <c r="N195" s="27" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O195" s="25" t="s">
         <v>13</v>
@@ -19414,13 +19876,15 @@
         <v>13</v>
       </c>
       <c r="AA195" s="25"/>
+      <c r="AB195" s="78"/>
+      <c r="AC195" s="25"/>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="25">
         <v>45981</v>
       </c>
       <c r="B196" s="24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>55</v>
@@ -19438,16 +19902,16 @@
         <v>13</v>
       </c>
       <c r="K196" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="L196" s="26" t="s">
+        <v>845</v>
+      </c>
+      <c r="M196" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="N196" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="L196" s="26" t="s">
-        <v>846</v>
-      </c>
-      <c r="M196" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="N196" s="27" t="s">
-        <v>861</v>
       </c>
       <c r="O196" s="25" t="s">
         <v>13</v>
@@ -19482,8 +19946,10 @@
         <v>13</v>
       </c>
       <c r="AA196" s="25"/>
+      <c r="AB196" s="78"/>
+      <c r="AC196" s="25"/>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="25">
         <v>45980</v>
       </c>
@@ -19500,22 +19966,22 @@
       <c r="F197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="22" t="s">
+        <v>933</v>
+      </c>
+      <c r="J197" s="22" t="s">
+        <v>936</v>
+      </c>
+      <c r="K197" s="25" t="s">
+        <v>932</v>
+      </c>
+      <c r="L197" s="26" t="s">
+        <v>808</v>
+      </c>
+      <c r="M197" s="26" t="s">
         <v>934</v>
       </c>
-      <c r="J197" s="22" t="s">
-        <v>937</v>
-      </c>
-      <c r="K197" s="25" t="s">
-        <v>933</v>
-      </c>
-      <c r="L197" s="26" t="s">
-        <v>809</v>
-      </c>
-      <c r="M197" s="26" t="s">
+      <c r="N197" s="27" t="s">
         <v>935</v>
-      </c>
-      <c r="N197" s="27" t="s">
-        <v>936</v>
       </c>
       <c r="O197" s="25" t="s">
         <v>13</v>
@@ -19550,8 +20016,10 @@
         <v>13</v>
       </c>
       <c r="AA197" s="25"/>
+      <c r="AB197" s="78"/>
+      <c r="AC197" s="25"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="25">
         <v>45985</v>
       </c>
@@ -19573,19 +20041,19 @@
         <v>100</v>
       </c>
       <c r="J198" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="K198" s="25" t="s">
+        <v>994</v>
+      </c>
+      <c r="L198" s="26" t="s">
+        <v>919</v>
+      </c>
+      <c r="M198" s="26" t="s">
         <v>997</v>
       </c>
-      <c r="K198" s="25" t="s">
-        <v>995</v>
-      </c>
-      <c r="L198" s="26" t="s">
-        <v>920</v>
-      </c>
-      <c r="M198" s="26" t="s">
-        <v>998</v>
-      </c>
       <c r="N198" s="27" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O198" s="25" t="s">
         <v>13</v>
@@ -19602,7 +20070,7 @@
         <v>20</v>
       </c>
       <c r="U198" s="27" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V198" s="27" t="s">
         <v>50</v>
@@ -19620,8 +20088,10 @@
         <v>13</v>
       </c>
       <c r="AA198" s="25"/>
+      <c r="AB198" s="78"/>
+      <c r="AC198" s="25"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="25">
         <v>45989</v>
       </c>
@@ -19644,16 +20114,16 @@
         <v>13</v>
       </c>
       <c r="K199" s="25" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L199" s="26" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="M199" s="26" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N199" s="27" t="s">
         <v>1090</v>
-      </c>
-      <c r="N199" s="27" t="s">
-        <v>1091</v>
       </c>
       <c r="O199" s="25" t="s">
         <v>26</v>
@@ -19688,8 +20158,10 @@
         <v>13</v>
       </c>
       <c r="AA199" s="25"/>
+      <c r="AB199" s="78"/>
+      <c r="AC199" s="25"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="25">
         <v>45978</v>
       </c>
@@ -19712,16 +20184,16 @@
         <v>13</v>
       </c>
       <c r="K200" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L200" s="26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M200" s="26" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N200" s="27" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O200" s="25" t="s">
         <v>13</v>
@@ -19758,13 +20230,15 @@
         <v>13</v>
       </c>
       <c r="AA200" s="25"/>
+      <c r="AB200" s="78"/>
+      <c r="AC200" s="25"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="25">
         <v>45987</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C201" s="25" t="s">
         <v>55</v>
@@ -19776,22 +20250,22 @@
       <c r="F201" s="25"/>
       <c r="H201" s="25"/>
       <c r="I201" s="22" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J201" s="25" t="s">
         <v>13</v>
       </c>
       <c r="K201" s="25" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L201" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="M201" s="26" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N201" s="27" t="s">
         <v>1066</v>
-      </c>
-      <c r="L201" s="26" t="s">
-        <v>986</v>
-      </c>
-      <c r="M201" s="26" t="s">
-        <v>1068</v>
-      </c>
-      <c r="N201" s="27" t="s">
-        <v>1067</v>
       </c>
       <c r="O201" s="25" t="s">
         <v>13</v>
@@ -19826,8 +20300,10 @@
         <v>13</v>
       </c>
       <c r="AA201" s="25"/>
+      <c r="AB201" s="78"/>
+      <c r="AC201" s="25"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="25">
         <v>45971</v>
       </c>
@@ -19850,16 +20326,16 @@
         <v>13</v>
       </c>
       <c r="K202" s="25" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L202" s="26" t="s">
         <v>642</v>
       </c>
       <c r="M202" s="26" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="N202" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O202" s="25" t="s">
         <v>13</v>
@@ -19894,8 +20370,10 @@
         <v>13</v>
       </c>
       <c r="AA202" s="25"/>
+      <c r="AB202" s="78"/>
+      <c r="AC202" s="25"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="25">
         <v>45982</v>
       </c>
@@ -19918,16 +20396,16 @@
         <v>13</v>
       </c>
       <c r="K203" s="25" t="s">
+        <v>980</v>
+      </c>
+      <c r="L203" s="26" t="s">
+        <v>866</v>
+      </c>
+      <c r="M203" s="26" t="s">
         <v>981</v>
       </c>
-      <c r="L203" s="26" t="s">
-        <v>867</v>
-      </c>
-      <c r="M203" s="26" t="s">
-        <v>982</v>
-      </c>
       <c r="N203" s="27" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="O203" s="25" t="s">
         <v>13</v>
@@ -19962,8 +20440,10 @@
         <v>13</v>
       </c>
       <c r="AA203" s="25"/>
+      <c r="AB203" s="78"/>
+      <c r="AC203" s="25"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="25">
         <v>45971</v>
       </c>
@@ -19986,16 +20466,16 @@
         <v>13</v>
       </c>
       <c r="K204" s="25" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L204" s="26" t="s">
         <v>663</v>
       </c>
       <c r="M204" s="26" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="N204" s="27" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O204" s="25" t="s">
         <v>13</v>
@@ -20030,13 +20510,15 @@
         <v>13</v>
       </c>
       <c r="AA204" s="25"/>
+      <c r="AB204" s="78"/>
+      <c r="AC204" s="25"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205" s="25">
         <v>45978</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C205" s="25" t="s">
         <v>55</v>
@@ -20054,16 +20536,16 @@
         <v>13</v>
       </c>
       <c r="K205" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="L205" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="M205" s="26" t="s">
         <v>889</v>
       </c>
-      <c r="L205" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="M205" s="26" t="s">
+      <c r="N205" s="27" t="s">
         <v>890</v>
-      </c>
-      <c r="N205" s="27" t="s">
-        <v>891</v>
       </c>
       <c r="O205" s="25" t="s">
         <v>13</v>
@@ -20098,8 +20580,10 @@
         <v>13</v>
       </c>
       <c r="AA205" s="25"/>
+      <c r="AB205" s="78"/>
+      <c r="AC205" s="25"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206" s="25">
         <v>45982</v>
       </c>
@@ -20122,16 +20606,16 @@
         <v>13</v>
       </c>
       <c r="K206" s="25" t="s">
+        <v>977</v>
+      </c>
+      <c r="L206" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="M206" s="26" t="s">
         <v>978</v>
       </c>
-      <c r="L206" s="26" t="s">
-        <v>866</v>
-      </c>
-      <c r="M206" s="26" t="s">
-        <v>979</v>
-      </c>
       <c r="N206" s="27" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O206" s="25" t="s">
         <v>13</v>
@@ -20166,8 +20650,10 @@
         <v>13</v>
       </c>
       <c r="AA206" s="25"/>
+      <c r="AB206" s="78"/>
+      <c r="AC206" s="25"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207" s="25">
         <v>45987</v>
       </c>
@@ -20190,16 +20676,16 @@
         <v>13</v>
       </c>
       <c r="K207" s="25" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L207" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M207" s="26" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N207" s="27" t="s">
         <v>1077</v>
-      </c>
-      <c r="L207" s="26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M207" s="26" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N207" s="27" t="s">
-        <v>1078</v>
       </c>
       <c r="O207" s="25" t="s">
         <v>13</v>
@@ -20234,8 +20720,10 @@
         <v>13</v>
       </c>
       <c r="AA207" s="25"/>
+      <c r="AB207" s="78"/>
+      <c r="AC207" s="25"/>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208" s="25">
         <v>45986</v>
       </c>
@@ -20258,16 +20746,16 @@
         <v>13</v>
       </c>
       <c r="K208" s="25" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L208" s="26" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M208" s="26" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="N208" s="27" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="O208" s="25" t="s">
         <v>13</v>
@@ -20302,8 +20790,10 @@
         <v>13</v>
       </c>
       <c r="AA208" s="25"/>
+      <c r="AB208" s="78"/>
+      <c r="AC208" s="25"/>
     </row>
-    <row r="209" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B209" s="31"/>
       <c r="C209" s="32"/>
       <c r="D209" s="32"/>
@@ -20322,6 +20812,8 @@
       <c r="Y209" s="33"/>
       <c r="Z209" s="33"/>
       <c r="AA209" s="32"/>
+      <c r="AB209" s="78"/>
+      <c r="AC209" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheng\Documents\Python_Projects\auto_workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A701427F-7D09-4B6C-8828-DD2E81E19AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B25E00-69F7-4333-B13B-4DA2815A439B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5162,7 +5162,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="16" x14ac:dyDescent="0.3"/>
